--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="525">
   <si>
     <t>S051</t>
   </si>
@@ -1525,6 +1525,81 @@
   </si>
   <si>
     <t>static/uploads/S092.png</t>
+  </si>
+  <si>
+    <t>S094</t>
+  </si>
+  <si>
+    <t>di sana</t>
+  </si>
+  <si>
+    <t>static/uploads/S094.png</t>
+  </si>
+  <si>
+    <t>S093</t>
+  </si>
+  <si>
+    <t>3319071604840003</t>
+  </si>
+  <si>
+    <t>AGUS SUGIARTO</t>
+  </si>
+  <si>
+    <t>085226240889</t>
+  </si>
+  <si>
+    <t>RT 03/05 DESA BESITO, KEC GEBOG, KAB KUDUS</t>
+  </si>
+  <si>
+    <t>static/uploads/S093.png</t>
+  </si>
+  <si>
+    <t>3319020807610002</t>
+  </si>
+  <si>
+    <t>BUDIYANTO</t>
+  </si>
+  <si>
+    <t>085225007739</t>
+  </si>
+  <si>
+    <t>JL CENDANA RT 02/04 DESA RENDENG, KEC KOTA, KAB KUDUS</t>
+  </si>
+  <si>
+    <t>S095</t>
+  </si>
+  <si>
+    <t>3318121905990001</t>
+  </si>
+  <si>
+    <t>WILDAN IRSYADUL UMAM</t>
+  </si>
+  <si>
+    <t>0895620140259</t>
+  </si>
+  <si>
+    <t>RANGGAH RT 02/02 DESA METARAMAN, KEC MARGOREJO, KAB PATI</t>
+  </si>
+  <si>
+    <t>static/uploads/S095.png</t>
+  </si>
+  <si>
+    <t>S096</t>
+  </si>
+  <si>
+    <t>3319060304880004</t>
+  </si>
+  <si>
+    <t>SAMSUL HADI</t>
+  </si>
+  <si>
+    <t>081319335982</t>
+  </si>
+  <si>
+    <t>KRING UTARA RT 03/01 DESA SIDOMULYO, KEC JEKULO, KAB KUDUS</t>
+  </si>
+  <si>
+    <t>static/uploads/S096.png</t>
   </si>
 </sst>
 </file>
@@ -4576,6 +4651,151 @@
         <v>499</v>
       </c>
     </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>500</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="D96" t="s">
+        <v>460</v>
+      </c>
+      <c r="E96" t="s">
+        <v>459</v>
+      </c>
+      <c r="F96" t="s">
+        <v>501</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96" t="s">
+        <v>2</v>
+      </c>
+      <c r="I96" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>503</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="D97" t="s">
+        <v>505</v>
+      </c>
+      <c r="E97" t="s">
+        <v>506</v>
+      </c>
+      <c r="F97" t="s">
+        <v>507</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97" t="s">
+        <v>2</v>
+      </c>
+      <c r="I97" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>500</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="D98" t="s">
+        <v>510</v>
+      </c>
+      <c r="E98" t="s">
+        <v>511</v>
+      </c>
+      <c r="F98" t="s">
+        <v>512</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98" t="s">
+        <v>2</v>
+      </c>
+      <c r="I98" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>513</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="D99" t="s">
+        <v>515</v>
+      </c>
+      <c r="E99" t="s">
+        <v>516</v>
+      </c>
+      <c r="F99" t="s">
+        <v>517</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99" t="s">
+        <v>2</v>
+      </c>
+      <c r="I99" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>519</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>520</v>
+      </c>
+      <c r="D100" t="s">
+        <v>521</v>
+      </c>
+      <c r="E100" t="s">
+        <v>522</v>
+      </c>
+      <c r="F100" t="s">
+        <v>523</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100" t="s">
+        <v>2</v>
+      </c>
+      <c r="I100" t="s">
+        <v>524</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="617">
   <si>
     <t>S051</t>
   </si>
@@ -1600,6 +1600,282 @@
   </si>
   <si>
     <t>static/uploads/S096.png</t>
+  </si>
+  <si>
+    <t>S097</t>
+  </si>
+  <si>
+    <t>3309120108049001</t>
+  </si>
+  <si>
+    <t>ALE SANDRO DWI SAPUTRA</t>
+  </si>
+  <si>
+    <t>0895340453050</t>
+  </si>
+  <si>
+    <t>KLIWONAN RT 02/07 DESA JERON, KEC NOGOSARI, KAB BOYOLALI</t>
+  </si>
+  <si>
+    <t>static/uploads/S097.png</t>
+  </si>
+  <si>
+    <t>S098</t>
+  </si>
+  <si>
+    <t>3314011507800004</t>
+  </si>
+  <si>
+    <t>LASNO</t>
+  </si>
+  <si>
+    <t>082220833940</t>
+  </si>
+  <si>
+    <t>KEDEN WETAN RT 14 DESA KEDEN, KEC KALIJAMBE, KAB SRAGEN</t>
+  </si>
+  <si>
+    <t>static/uploads/S098.png</t>
+  </si>
+  <si>
+    <t>S099</t>
+  </si>
+  <si>
+    <t>3319060511840002</t>
+  </si>
+  <si>
+    <t>MATTORI</t>
+  </si>
+  <si>
+    <t>082322083412</t>
+  </si>
+  <si>
+    <t>RT 01/07 DESA TERBAN, KEC JEKULO, KAB KUDUS</t>
+  </si>
+  <si>
+    <t>static/uploads/S099.png</t>
+  </si>
+  <si>
+    <t>S100</t>
+  </si>
+  <si>
+    <t>3319080808890003</t>
+  </si>
+  <si>
+    <t>AZWAR ANAS</t>
+  </si>
+  <si>
+    <t>085225324480</t>
+  </si>
+  <si>
+    <t>NGARINGAN RT 06/06 DESA KLUMPIT, KEC GEBOG, KAB KUDUS</t>
+  </si>
+  <si>
+    <t>static/uploads/S100.png</t>
+  </si>
+  <si>
+    <t>S101</t>
+  </si>
+  <si>
+    <t>3318081006740001</t>
+  </si>
+  <si>
+    <t>WAWAN SAFUAN</t>
+  </si>
+  <si>
+    <t>085281656966</t>
+  </si>
+  <si>
+    <t>LANGGEN RT 01/03 DESA LANGGENHARJO, KEC JUWANA, KAB PATI</t>
+  </si>
+  <si>
+    <t>static/uploads/S101.png</t>
+  </si>
+  <si>
+    <t>S102</t>
+  </si>
+  <si>
+    <t>3319062305970004</t>
+  </si>
+  <si>
+    <t>NURUL FARIHIN</t>
+  </si>
+  <si>
+    <t>082325160701</t>
+  </si>
+  <si>
+    <t>RT 05/07 DESA BULUNG KULON, KEC JEKULO, KAB KUDUS</t>
+  </si>
+  <si>
+    <t>static/uploads/S102.png</t>
+  </si>
+  <si>
+    <t>S103</t>
+  </si>
+  <si>
+    <t>3173061807990008</t>
+  </si>
+  <si>
+    <t>HARYONO</t>
+  </si>
+  <si>
+    <t>RT 04/01 DESA PADANG JAYA, KEC MAJENANG, KAB CILACAP</t>
+  </si>
+  <si>
+    <t>static/uploads/S103.png</t>
+  </si>
+  <si>
+    <t>S104</t>
+  </si>
+  <si>
+    <t>33181219068200011</t>
+  </si>
+  <si>
+    <t>KIYANTO</t>
+  </si>
+  <si>
+    <t>085327340315</t>
+  </si>
+  <si>
+    <t>MAWAR RT 02/05 DESA JAMBEAN KIDUL, KEC MARGOREJO, KAB PATI</t>
+  </si>
+  <si>
+    <t>static/uploads/S104.png</t>
+  </si>
+  <si>
+    <t>S105</t>
+  </si>
+  <si>
+    <t>3318042004630001</t>
+  </si>
+  <si>
+    <t>TRIYONO</t>
+  </si>
+  <si>
+    <t>082146354406</t>
+  </si>
+  <si>
+    <t>BLLIBAK RT 02/02 DESA PULOREJO, KEC WINONG, KAB PATI</t>
+  </si>
+  <si>
+    <t>static/uploads/S105.png</t>
+  </si>
+  <si>
+    <t>S106</t>
+  </si>
+  <si>
+    <t>ACHMAD SYAFI'I</t>
+  </si>
+  <si>
+    <t>static/uploads/S106.png</t>
+  </si>
+  <si>
+    <t>S107</t>
+  </si>
+  <si>
+    <t>33190823027700001</t>
+  </si>
+  <si>
+    <t>MOCH RIDWAN</t>
+  </si>
+  <si>
+    <t>081325416658</t>
+  </si>
+  <si>
+    <t>RT 02/01 DESAA KARANGMALANG, KEC GEBOG, KAB KUDUS</t>
+  </si>
+  <si>
+    <t>static/uploads/S107.png</t>
+  </si>
+  <si>
+    <t>S108</t>
+  </si>
+  <si>
+    <t>3319060305720002</t>
+  </si>
+  <si>
+    <t>SURYANI</t>
+  </si>
+  <si>
+    <t>081391387397</t>
+  </si>
+  <si>
+    <t>RT 02/07 DESA TERBAN, KEC JEKULO, KAB KUDUS</t>
+  </si>
+  <si>
+    <t>static/uploads/S108.png</t>
+  </si>
+  <si>
+    <t>S109</t>
+  </si>
+  <si>
+    <t>3319062710840005</t>
+  </si>
+  <si>
+    <t>JOKO SAPUTRO</t>
+  </si>
+  <si>
+    <t>081228768461</t>
+  </si>
+  <si>
+    <t>RT 04/03 DESA SIDOMULYO, KEC JEKULO, KAB KUDUS</t>
+  </si>
+  <si>
+    <t>static/uploads/S109.png</t>
+  </si>
+  <si>
+    <t>S110</t>
+  </si>
+  <si>
+    <t>3319032205790001</t>
+  </si>
+  <si>
+    <t>ABDUL MALIK</t>
+  </si>
+  <si>
+    <t>082227937092</t>
+  </si>
+  <si>
+    <t>RT 03/06 DESA LORAM WETAN, KEC JATI, KAB KUDUS</t>
+  </si>
+  <si>
+    <t>static/uploads/S110.png</t>
+  </si>
+  <si>
+    <t>S111</t>
+  </si>
+  <si>
+    <t>3319033012640001</t>
+  </si>
+  <si>
+    <t>ABU BADARI</t>
+  </si>
+  <si>
+    <t>085290148365</t>
+  </si>
+  <si>
+    <t>RT 02/04 DESA JATI KULON, KEC JATI, KAB KUDUS</t>
+  </si>
+  <si>
+    <t>static/uploads/S111.png</t>
+  </si>
+  <si>
+    <t>S112</t>
+  </si>
+  <si>
+    <t>3319020211010004</t>
+  </si>
+  <si>
+    <t>MUUHAMMAD NI'MAL MAULANA SISWANTO</t>
+  </si>
+  <si>
+    <t>085523784468</t>
+  </si>
+  <si>
+    <t>RT 04/02 DESA KALIPUTU, KEC KOTA, KAB KUDUS</t>
+  </si>
+  <si>
+    <t>static/uploads/S112.png</t>
   </si>
 </sst>
 </file>
@@ -4796,6 +5072,470 @@
         <v>524</v>
       </c>
     </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>525</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1</v>
+      </c>
+      <c r="C101" s="9" t="s">
+        <v>526</v>
+      </c>
+      <c r="D101" t="s">
+        <v>527</v>
+      </c>
+      <c r="E101" t="s">
+        <v>528</v>
+      </c>
+      <c r="F101" t="s">
+        <v>529</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101" t="s">
+        <v>2</v>
+      </c>
+      <c r="I101" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>531</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1</v>
+      </c>
+      <c r="C102" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="D102" t="s">
+        <v>533</v>
+      </c>
+      <c r="E102" t="s">
+        <v>534</v>
+      </c>
+      <c r="F102" t="s">
+        <v>535</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102" t="s">
+        <v>2</v>
+      </c>
+      <c r="I102" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>537</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="D103" t="s">
+        <v>539</v>
+      </c>
+      <c r="E103" t="s">
+        <v>540</v>
+      </c>
+      <c r="F103" t="s">
+        <v>541</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103" t="s">
+        <v>2</v>
+      </c>
+      <c r="I103" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>543</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="D104" t="s">
+        <v>545</v>
+      </c>
+      <c r="E104" t="s">
+        <v>546</v>
+      </c>
+      <c r="F104" t="s">
+        <v>547</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104" t="s">
+        <v>2</v>
+      </c>
+      <c r="I104" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>549</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="D105" t="s">
+        <v>551</v>
+      </c>
+      <c r="E105" t="s">
+        <v>552</v>
+      </c>
+      <c r="F105" t="s">
+        <v>553</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105" t="s">
+        <v>2</v>
+      </c>
+      <c r="I105" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>555</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1</v>
+      </c>
+      <c r="C106" s="9" t="s">
+        <v>556</v>
+      </c>
+      <c r="D106" t="s">
+        <v>557</v>
+      </c>
+      <c r="E106" t="s">
+        <v>558</v>
+      </c>
+      <c r="F106" t="s">
+        <v>559</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106" t="s">
+        <v>2</v>
+      </c>
+      <c r="I106" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>561</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>562</v>
+      </c>
+      <c r="D107" t="s">
+        <v>563</v>
+      </c>
+      <c r="E107" t="s">
+        <v>175</v>
+      </c>
+      <c r="F107" t="s">
+        <v>564</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107" t="s">
+        <v>2</v>
+      </c>
+      <c r="I107" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>566</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1</v>
+      </c>
+      <c r="C108" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="D108" t="s">
+        <v>568</v>
+      </c>
+      <c r="E108" t="s">
+        <v>569</v>
+      </c>
+      <c r="F108" t="s">
+        <v>570</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108" t="s">
+        <v>2</v>
+      </c>
+      <c r="I108" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>572</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1</v>
+      </c>
+      <c r="C109" s="9" t="s">
+        <v>573</v>
+      </c>
+      <c r="D109" t="s">
+        <v>574</v>
+      </c>
+      <c r="E109" t="s">
+        <v>575</v>
+      </c>
+      <c r="F109" t="s">
+        <v>576</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109" t="s">
+        <v>2</v>
+      </c>
+      <c r="I109" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>578</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1</v>
+      </c>
+      <c r="C110" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="D110" t="s">
+        <v>579</v>
+      </c>
+      <c r="E110" t="s">
+        <v>175</v>
+      </c>
+      <c r="F110" t="s">
+        <v>294</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110" t="s">
+        <v>2</v>
+      </c>
+      <c r="I110" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>581</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1</v>
+      </c>
+      <c r="C111" s="9" t="s">
+        <v>582</v>
+      </c>
+      <c r="D111" t="s">
+        <v>583</v>
+      </c>
+      <c r="E111" t="s">
+        <v>584</v>
+      </c>
+      <c r="F111" t="s">
+        <v>585</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111" t="s">
+        <v>2</v>
+      </c>
+      <c r="I111" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>587</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1</v>
+      </c>
+      <c r="C112" s="9" t="s">
+        <v>588</v>
+      </c>
+      <c r="D112" t="s">
+        <v>589</v>
+      </c>
+      <c r="E112" t="s">
+        <v>590</v>
+      </c>
+      <c r="F112" t="s">
+        <v>591</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112" t="s">
+        <v>2</v>
+      </c>
+      <c r="I112" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>593</v>
+      </c>
+      <c r="B113" t="s">
+        <v>1</v>
+      </c>
+      <c r="C113" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="D113" t="s">
+        <v>595</v>
+      </c>
+      <c r="E113" t="s">
+        <v>596</v>
+      </c>
+      <c r="F113" t="s">
+        <v>597</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113" t="s">
+        <v>2</v>
+      </c>
+      <c r="I113" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>599</v>
+      </c>
+      <c r="B114" t="s">
+        <v>1</v>
+      </c>
+      <c r="C114" s="9" t="s">
+        <v>600</v>
+      </c>
+      <c r="D114" t="s">
+        <v>601</v>
+      </c>
+      <c r="E114" t="s">
+        <v>602</v>
+      </c>
+      <c r="F114" t="s">
+        <v>603</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114" t="s">
+        <v>2</v>
+      </c>
+      <c r="I114" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>605</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1</v>
+      </c>
+      <c r="C115" s="9" t="s">
+        <v>606</v>
+      </c>
+      <c r="D115" t="s">
+        <v>607</v>
+      </c>
+      <c r="E115" t="s">
+        <v>608</v>
+      </c>
+      <c r="F115" t="s">
+        <v>609</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115" t="s">
+        <v>2</v>
+      </c>
+      <c r="I115" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>611</v>
+      </c>
+      <c r="B116" t="s">
+        <v>1</v>
+      </c>
+      <c r="C116" s="9" t="s">
+        <v>612</v>
+      </c>
+      <c r="D116" t="s">
+        <v>613</v>
+      </c>
+      <c r="E116" t="s">
+        <v>614</v>
+      </c>
+      <c r="F116" t="s">
+        <v>615</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116" t="s">
+        <v>2</v>
+      </c>
+      <c r="I116" t="s">
+        <v>616</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="629">
   <si>
     <t>S051</t>
   </si>
@@ -1876,6 +1876,42 @@
   </si>
   <si>
     <t>static/uploads/S112.png</t>
+  </si>
+  <si>
+    <t>S113</t>
+  </si>
+  <si>
+    <t>33181229809790004</t>
+  </si>
+  <si>
+    <t>NGATMUJI</t>
+  </si>
+  <si>
+    <t>085257238235</t>
+  </si>
+  <si>
+    <t>BOUGENVILE RT 06/02 DESA JAMBEAN KIDUL, KEC MARGOREJO, KAB PATI</t>
+  </si>
+  <si>
+    <t>static/uploads/S113.png</t>
+  </si>
+  <si>
+    <t>S114</t>
+  </si>
+  <si>
+    <t>3320111207030002</t>
+  </si>
+  <si>
+    <t>MUCHAMMAD ATTAN NAVARON</t>
+  </si>
+  <si>
+    <t>085700247810</t>
+  </si>
+  <si>
+    <t>RT 12/05 DESA LANGON, KEC TAHUNAN, KAB JEPARA</t>
+  </si>
+  <si>
+    <t>static/uploads/S114.png</t>
   </si>
 </sst>
 </file>
@@ -5536,6 +5572,64 @@
         <v>616</v>
       </c>
     </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>617</v>
+      </c>
+      <c r="B117" t="s">
+        <v>1</v>
+      </c>
+      <c r="C117" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="D117" t="s">
+        <v>619</v>
+      </c>
+      <c r="E117" t="s">
+        <v>620</v>
+      </c>
+      <c r="F117" t="s">
+        <v>621</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117" t="s">
+        <v>2</v>
+      </c>
+      <c r="I117" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>623</v>
+      </c>
+      <c r="B118" t="s">
+        <v>1</v>
+      </c>
+      <c r="C118" s="9" t="s">
+        <v>624</v>
+      </c>
+      <c r="D118" t="s">
+        <v>625</v>
+      </c>
+      <c r="E118" t="s">
+        <v>626</v>
+      </c>
+      <c r="F118" t="s">
+        <v>627</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118" t="s">
+        <v>2</v>
+      </c>
+      <c r="I118" t="s">
+        <v>628</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="841">
   <si>
     <t>S051</t>
   </si>
@@ -1912,6 +1912,642 @@
   </si>
   <si>
     <t>static/uploads/S114.png</t>
+  </si>
+  <si>
+    <t>S115</t>
+  </si>
+  <si>
+    <t>331907260390001</t>
+  </si>
+  <si>
+    <t>JALALLUDIN</t>
+  </si>
+  <si>
+    <t>085786284266</t>
+  </si>
+  <si>
+    <t>KEPOH RT 04/3 DESA NGEMBALREJO, KEC BAE, KAB KUDUS</t>
+  </si>
+  <si>
+    <t>static/uploads/S115.png</t>
+  </si>
+  <si>
+    <t>S116</t>
+  </si>
+  <si>
+    <t>3319060807860003</t>
+  </si>
+  <si>
+    <t>MOH SOHIRUL ALIM</t>
+  </si>
+  <si>
+    <t>0895393368749</t>
+  </si>
+  <si>
+    <t>RT 01/04 DESA PLADEN, KEC JEKULO, KAB KUDUS</t>
+  </si>
+  <si>
+    <t>static/uploads/S116.png</t>
+  </si>
+  <si>
+    <t>S117</t>
+  </si>
+  <si>
+    <t>3318141002700004</t>
+  </si>
+  <si>
+    <t>RUKIN</t>
+  </si>
+  <si>
+    <t>RT 01/02 DESA KARANGBENER, KEC BAE, KAB KUDUS</t>
+  </si>
+  <si>
+    <t>static/uploads/S117.png</t>
+  </si>
+  <si>
+    <t>S118</t>
+  </si>
+  <si>
+    <t>3319032905990003</t>
+  </si>
+  <si>
+    <t>SUPRIYONO</t>
+  </si>
+  <si>
+    <t>081466736822</t>
+  </si>
+  <si>
+    <t>GENDOK RT 07/03 DESA JATI WETAN, KEC JATI, KAB KUDUS</t>
+  </si>
+  <si>
+    <t>static/uploads/S118.png</t>
+  </si>
+  <si>
+    <t>S119</t>
+  </si>
+  <si>
+    <t>3319061901880002</t>
+  </si>
+  <si>
+    <t>085713933824</t>
+  </si>
+  <si>
+    <t>RT 03/02 DESA GONDOHARUM, KEC JEKULO, KAB KUDUS</t>
+  </si>
+  <si>
+    <t>static/uploads/S119.png</t>
+  </si>
+  <si>
+    <t>S120</t>
+  </si>
+  <si>
+    <t>3319031112710007</t>
+  </si>
+  <si>
+    <t>ISTADI</t>
+  </si>
+  <si>
+    <t>085225793471</t>
+  </si>
+  <si>
+    <t>RT 05/01 DESA NGEMBAL KULON, KEC JATI, KAB KUDUS</t>
+  </si>
+  <si>
+    <t>static/uploads/S120.png</t>
+  </si>
+  <si>
+    <t>S121</t>
+  </si>
+  <si>
+    <t>3319030311750001</t>
+  </si>
+  <si>
+    <t>SUBADI</t>
+  </si>
+  <si>
+    <t>082326988443</t>
+  </si>
+  <si>
+    <t>DURSARAN RT 05/05 DESA LORAM WETAN, KEC JATI, KAB KUDUS</t>
+  </si>
+  <si>
+    <t>static/uploads/S121.png</t>
+  </si>
+  <si>
+    <t>S122</t>
+  </si>
+  <si>
+    <t>3319020201810005</t>
+  </si>
+  <si>
+    <t>LUKITO</t>
+  </si>
+  <si>
+    <t>087869066983</t>
+  </si>
+  <si>
+    <t>RT 01/01 DESA JANGGALAN</t>
+  </si>
+  <si>
+    <t>static/uploads/S122.png</t>
+  </si>
+  <si>
+    <t>S123</t>
+  </si>
+  <si>
+    <t>3321100101900004</t>
+  </si>
+  <si>
+    <t>AHMAD YAZID</t>
+  </si>
+  <si>
+    <t>081296744269</t>
+  </si>
+  <si>
+    <t>RT 02/01 DESA PASIR, KEC MIJEN , KAB DEMAK</t>
+  </si>
+  <si>
+    <t>static/uploads/S123.png</t>
+  </si>
+  <si>
+    <t>S124</t>
+  </si>
+  <si>
+    <t>3319060302890003</t>
+  </si>
+  <si>
+    <t>RUHMADI</t>
+  </si>
+  <si>
+    <t>085641426167</t>
+  </si>
+  <si>
+    <t>RT 05/02 DESA GONDOHARUM, KEC JEKULO, KAB KUKDUS</t>
+  </si>
+  <si>
+    <t>static/uploads/S124.png</t>
+  </si>
+  <si>
+    <t>S125</t>
+  </si>
+  <si>
+    <t>3319060803840004</t>
+  </si>
+  <si>
+    <t>ALI MUSTOFA</t>
+  </si>
+  <si>
+    <t>085226496629</t>
+  </si>
+  <si>
+    <t>RT 04/01 DESA PLADEN, KEC JEKULO, KAB KUDUS</t>
+  </si>
+  <si>
+    <t>static/uploads/S125.png</t>
+  </si>
+  <si>
+    <t>S126</t>
+  </si>
+  <si>
+    <t>3309052301009001</t>
+  </si>
+  <si>
+    <t>RONI MUSTOFA</t>
+  </si>
+  <si>
+    <t>085878628418</t>
+  </si>
+  <si>
+    <t>BENER RT 06/03 DESA GUBUG, KEC CEPOGO, KAB BOYOLALI</t>
+  </si>
+  <si>
+    <t>static/uploads/S126.png</t>
+  </si>
+  <si>
+    <t>S127</t>
+  </si>
+  <si>
+    <t>3320030611670002</t>
+  </si>
+  <si>
+    <t>085600485126</t>
+  </si>
+  <si>
+    <t>RT 06/02 DESA GIDANGELO, KEC WELAHAN, KAB JEPARA</t>
+  </si>
+  <si>
+    <t>static/uploads/S127.png</t>
+  </si>
+  <si>
+    <t>S128</t>
+  </si>
+  <si>
+    <t>3212022804860003</t>
+  </si>
+  <si>
+    <t>SUNARTO</t>
+  </si>
+  <si>
+    <t>085320213967</t>
+  </si>
+  <si>
+    <t>RT 05/06 DESA TERBAN, KEC JEKULO, KAB KUDUS</t>
+  </si>
+  <si>
+    <t>static/uploads/S128.png</t>
+  </si>
+  <si>
+    <t>S129</t>
+  </si>
+  <si>
+    <t>3319060705670003</t>
+  </si>
+  <si>
+    <t>SUYOTO</t>
+  </si>
+  <si>
+    <t>RT 04/02 DESA GONDOHARUM</t>
+  </si>
+  <si>
+    <t>static/uploads/S129.png</t>
+  </si>
+  <si>
+    <t>S130</t>
+  </si>
+  <si>
+    <t>3319011604900003</t>
+  </si>
+  <si>
+    <t>FERY FARHAN TINORA</t>
+  </si>
+  <si>
+    <t>082313774775</t>
+  </si>
+  <si>
+    <t>static/uploads/S130.png</t>
+  </si>
+  <si>
+    <t>S131</t>
+  </si>
+  <si>
+    <t>1871031301850008</t>
+  </si>
+  <si>
+    <t>TEGUH BUDIARTO</t>
+  </si>
+  <si>
+    <t>082377686285</t>
+  </si>
+  <si>
+    <t>JL. TAMIN RT 10 DESA SUKA JAWA, KEC TANJUNGKARANG BARAT, KOTA BANDAR</t>
+  </si>
+  <si>
+    <t>static/uploads/S131.png</t>
+  </si>
+  <si>
+    <t>S132</t>
+  </si>
+  <si>
+    <t>1801040906820008</t>
+  </si>
+  <si>
+    <t>SUDARYO</t>
+  </si>
+  <si>
+    <t>085267193395</t>
+  </si>
+  <si>
+    <t>JL ARJUNA RT 02 DESA BUMISARI, KEC NATAR, KAB LAMPUNG SELATAN</t>
+  </si>
+  <si>
+    <t>static/uploads/S132.png</t>
+  </si>
+  <si>
+    <t>S133</t>
+  </si>
+  <si>
+    <t>3320031905790003</t>
+  </si>
+  <si>
+    <t>JUMARNO</t>
+  </si>
+  <si>
+    <t>081904611527</t>
+  </si>
+  <si>
+    <t>RT 06/02 DESA GIDANGELO, WELAHAN, KEC JEPARA</t>
+  </si>
+  <si>
+    <t>static/uploads/S133.png</t>
+  </si>
+  <si>
+    <t>S134</t>
+  </si>
+  <si>
+    <t>3316140301850003</t>
+  </si>
+  <si>
+    <t>DWI TRAN MARYONO</t>
+  </si>
+  <si>
+    <t>085226899221</t>
+  </si>
+  <si>
+    <t>PADAS RT 04/01 DESA TODANAN, KEC TODANAN, KAB BLORA</t>
+  </si>
+  <si>
+    <t>static/uploads/S134.png</t>
+  </si>
+  <si>
+    <t>S135</t>
+  </si>
+  <si>
+    <t>3319060104890006</t>
+  </si>
+  <si>
+    <t>BAMBANG DWI SAPUTRO</t>
+  </si>
+  <si>
+    <t>081238362791</t>
+  </si>
+  <si>
+    <t>RT 06/02 DESA GONDOHARUM, KEC JEKULO, KAB KUDUS</t>
+  </si>
+  <si>
+    <t>static/uploads/S135.png</t>
+  </si>
+  <si>
+    <t>S136</t>
+  </si>
+  <si>
+    <t>3319061505810005</t>
+  </si>
+  <si>
+    <t>MIFTAKHUDIN</t>
+  </si>
+  <si>
+    <t>082225554173</t>
+  </si>
+  <si>
+    <t>RT 03/07 DESA TERBAN, KEC JEKULO, KAB KUDUS</t>
+  </si>
+  <si>
+    <t>static/uploads/S136.png</t>
+  </si>
+  <si>
+    <t>S137</t>
+  </si>
+  <si>
+    <t>3315132210890005</t>
+  </si>
+  <si>
+    <t>ALI MUNTHOIN</t>
+  </si>
+  <si>
+    <t>085290324425</t>
+  </si>
+  <si>
+    <t>RT 06/03 DESA TUNGGAK, KEC TOROH, KAB GROBOGAN</t>
+  </si>
+  <si>
+    <t>static/uploads/S137.png</t>
+  </si>
+  <si>
+    <t>S138</t>
+  </si>
+  <si>
+    <t>3319061010970006</t>
+  </si>
+  <si>
+    <t>AGUS SISWANTO</t>
+  </si>
+  <si>
+    <t>085795744966</t>
+  </si>
+  <si>
+    <t>RT 09/02 DESA GONDOHARUM, KEC JEKULO, KAB KUDUS</t>
+  </si>
+  <si>
+    <t>static/uploads/S138.png</t>
+  </si>
+  <si>
+    <t>S139</t>
+  </si>
+  <si>
+    <t>3319060312950002</t>
+  </si>
+  <si>
+    <t>NOOR ROKHIM</t>
+  </si>
+  <si>
+    <t>085600580633</t>
+  </si>
+  <si>
+    <t>RT 04/02 DESA GONDOHARUM, KEC JEKULO, KAB KUDUS</t>
+  </si>
+  <si>
+    <t>static/uploads/S139.png</t>
+  </si>
+  <si>
+    <t>S140</t>
+  </si>
+  <si>
+    <t>3319063107020003</t>
+  </si>
+  <si>
+    <t>AHMAD KHOTIBUL UMAM</t>
+  </si>
+  <si>
+    <t>087838761060</t>
+  </si>
+  <si>
+    <t>static/uploads/S140.png</t>
+  </si>
+  <si>
+    <t>S141</t>
+  </si>
+  <si>
+    <t>3319022101860003</t>
+  </si>
+  <si>
+    <t>ZAEMPRON</t>
+  </si>
+  <si>
+    <t>085894926002</t>
+  </si>
+  <si>
+    <t>RT 04/04 DESA DEMAAN, KEC KOTA, KAB KUDUS</t>
+  </si>
+  <si>
+    <t>static/uploads/S141.png</t>
+  </si>
+  <si>
+    <t>S142</t>
+  </si>
+  <si>
+    <t>3319071409780002</t>
+  </si>
+  <si>
+    <t>MUH SYAICHU</t>
+  </si>
+  <si>
+    <t>085292927295</t>
+  </si>
+  <si>
+    <t>RT 02/02 DESA PEGANJARAN, KEC BAE, KAB KUDUS</t>
+  </si>
+  <si>
+    <t>static/uploads/S142.png</t>
+  </si>
+  <si>
+    <t>S143</t>
+  </si>
+  <si>
+    <t>3319060103700005</t>
+  </si>
+  <si>
+    <t>WILUJENG</t>
+  </si>
+  <si>
+    <t>082326217456</t>
+  </si>
+  <si>
+    <t>static/uploads/S143.png</t>
+  </si>
+  <si>
+    <t>S144</t>
+  </si>
+  <si>
+    <t>3319062310690002</t>
+  </si>
+  <si>
+    <t>JUMARI</t>
+  </si>
+  <si>
+    <t>082134342026</t>
+  </si>
+  <si>
+    <t>static/uploads/S144.png</t>
+  </si>
+  <si>
+    <t>S145</t>
+  </si>
+  <si>
+    <t>3319041306760004</t>
+  </si>
+  <si>
+    <t>RUZIKAN</t>
+  </si>
+  <si>
+    <t>RT 03/02 DESA MEDINI, KEC UNDAAN, KAB KUDUS</t>
+  </si>
+  <si>
+    <t>static/uploads/S145.png</t>
+  </si>
+  <si>
+    <t>S146</t>
+  </si>
+  <si>
+    <t>3318141012950001</t>
+  </si>
+  <si>
+    <t>KARLAN</t>
+  </si>
+  <si>
+    <t>088218267520</t>
+  </si>
+  <si>
+    <t>PETIR RT 07/03 DESA TANJUNGSARI, KEC TLOGOWUNGU, KAB PATI</t>
+  </si>
+  <si>
+    <t>static/uploads/S146.png</t>
+  </si>
+  <si>
+    <t>S147</t>
+  </si>
+  <si>
+    <t>3319063112790088</t>
+  </si>
+  <si>
+    <t>FARUP</t>
+  </si>
+  <si>
+    <t>081326671334</t>
+  </si>
+  <si>
+    <t>static/uploads/S147.png</t>
+  </si>
+  <si>
+    <t>S148</t>
+  </si>
+  <si>
+    <t>3319012512860005</t>
+  </si>
+  <si>
+    <t>KASWADI</t>
+  </si>
+  <si>
+    <t>083127592773</t>
+  </si>
+  <si>
+    <t>RT 06/06 DESA GOLANTEPUS, KEC MEJOBO, KAB KUDUS</t>
+  </si>
+  <si>
+    <t>static/uploads/S148.png</t>
+  </si>
+  <si>
+    <t>S149</t>
+  </si>
+  <si>
+    <t>3319061710850002</t>
+  </si>
+  <si>
+    <t>KHAFIDZ AKHYARI</t>
+  </si>
+  <si>
+    <t>081390593587</t>
+  </si>
+  <si>
+    <t>KRING TENGAH RT 05/02 DESA SIDOMULYO, KEC JEKULO, KAB KUDUS</t>
+  </si>
+  <si>
+    <t>static/uploads/S149.png</t>
+  </si>
+  <si>
+    <t>S150</t>
+  </si>
+  <si>
+    <t>3319092309860001</t>
+  </si>
+  <si>
+    <t>SUPADANG</t>
+  </si>
+  <si>
+    <t>081325156393</t>
+  </si>
+  <si>
+    <t>RT 05/03 DESA KANDANGMAS, KEC DAWE, KAB KUDUS</t>
+  </si>
+  <si>
+    <t>static/uploads/S150.png</t>
+  </si>
+  <si>
+    <t>S151</t>
+  </si>
+  <si>
+    <t>3319091907820003</t>
+  </si>
+  <si>
+    <t>SUNARWAN</t>
+  </si>
+  <si>
+    <t>081228491117</t>
+  </si>
+  <si>
+    <t>RT 06/03 DESA KANDANGMAS, KEC DAWE, KAB KUDUS</t>
+  </si>
+  <si>
+    <t>static/uploads/S151.png</t>
   </si>
 </sst>
 </file>
@@ -5630,6 +6266,1079 @@
         <v>628</v>
       </c>
     </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>629</v>
+      </c>
+      <c r="B119" t="s">
+        <v>1</v>
+      </c>
+      <c r="C119" s="9" t="s">
+        <v>630</v>
+      </c>
+      <c r="D119" t="s">
+        <v>631</v>
+      </c>
+      <c r="E119" t="s">
+        <v>632</v>
+      </c>
+      <c r="F119" t="s">
+        <v>633</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119" t="s">
+        <v>2</v>
+      </c>
+      <c r="I119" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>635</v>
+      </c>
+      <c r="B120" t="s">
+        <v>1</v>
+      </c>
+      <c r="C120" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="D120" t="s">
+        <v>637</v>
+      </c>
+      <c r="E120" t="s">
+        <v>638</v>
+      </c>
+      <c r="F120" t="s">
+        <v>639</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120" t="s">
+        <v>2</v>
+      </c>
+      <c r="I120" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>641</v>
+      </c>
+      <c r="B121" t="s">
+        <v>1</v>
+      </c>
+      <c r="C121" s="9" t="s">
+        <v>642</v>
+      </c>
+      <c r="D121" t="s">
+        <v>643</v>
+      </c>
+      <c r="E121" t="s">
+        <v>175</v>
+      </c>
+      <c r="F121" t="s">
+        <v>644</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121" t="s">
+        <v>2</v>
+      </c>
+      <c r="I121" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>646</v>
+      </c>
+      <c r="B122" t="s">
+        <v>1</v>
+      </c>
+      <c r="C122" s="9" t="s">
+        <v>647</v>
+      </c>
+      <c r="D122" t="s">
+        <v>648</v>
+      </c>
+      <c r="E122" t="s">
+        <v>649</v>
+      </c>
+      <c r="F122" t="s">
+        <v>650</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122" t="s">
+        <v>2</v>
+      </c>
+      <c r="I122" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>652</v>
+      </c>
+      <c r="B123" t="s">
+        <v>1</v>
+      </c>
+      <c r="C123" s="9" t="s">
+        <v>653</v>
+      </c>
+      <c r="D123" t="s">
+        <v>521</v>
+      </c>
+      <c r="E123" t="s">
+        <v>654</v>
+      </c>
+      <c r="F123" t="s">
+        <v>655</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123" t="s">
+        <v>2</v>
+      </c>
+      <c r="I123" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>657</v>
+      </c>
+      <c r="B124" t="s">
+        <v>1</v>
+      </c>
+      <c r="C124" s="9" t="s">
+        <v>658</v>
+      </c>
+      <c r="D124" t="s">
+        <v>659</v>
+      </c>
+      <c r="E124" t="s">
+        <v>660</v>
+      </c>
+      <c r="F124" t="s">
+        <v>661</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124" t="s">
+        <v>2</v>
+      </c>
+      <c r="I124" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>663</v>
+      </c>
+      <c r="B125" t="s">
+        <v>1</v>
+      </c>
+      <c r="C125" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="D125" t="s">
+        <v>665</v>
+      </c>
+      <c r="E125" t="s">
+        <v>666</v>
+      </c>
+      <c r="F125" t="s">
+        <v>667</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="H125" t="s">
+        <v>2</v>
+      </c>
+      <c r="I125" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>669</v>
+      </c>
+      <c r="B126" t="s">
+        <v>1</v>
+      </c>
+      <c r="C126" s="9" t="s">
+        <v>670</v>
+      </c>
+      <c r="D126" t="s">
+        <v>671</v>
+      </c>
+      <c r="E126" t="s">
+        <v>672</v>
+      </c>
+      <c r="F126" t="s">
+        <v>673</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="H126" t="s">
+        <v>2</v>
+      </c>
+      <c r="I126" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>675</v>
+      </c>
+      <c r="B127" t="s">
+        <v>1</v>
+      </c>
+      <c r="C127" s="9" t="s">
+        <v>676</v>
+      </c>
+      <c r="D127" t="s">
+        <v>677</v>
+      </c>
+      <c r="E127" t="s">
+        <v>678</v>
+      </c>
+      <c r="F127" t="s">
+        <v>679</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+      <c r="H127" t="s">
+        <v>2</v>
+      </c>
+      <c r="I127" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>681</v>
+      </c>
+      <c r="B128" t="s">
+        <v>1</v>
+      </c>
+      <c r="C128" s="9" t="s">
+        <v>682</v>
+      </c>
+      <c r="D128" t="s">
+        <v>683</v>
+      </c>
+      <c r="E128" t="s">
+        <v>684</v>
+      </c>
+      <c r="F128" t="s">
+        <v>685</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="H128" t="s">
+        <v>2</v>
+      </c>
+      <c r="I128" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>687</v>
+      </c>
+      <c r="B129" t="s">
+        <v>1</v>
+      </c>
+      <c r="C129" s="9" t="s">
+        <v>688</v>
+      </c>
+      <c r="D129" t="s">
+        <v>689</v>
+      </c>
+      <c r="E129" t="s">
+        <v>690</v>
+      </c>
+      <c r="F129" t="s">
+        <v>691</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+      <c r="H129" t="s">
+        <v>2</v>
+      </c>
+      <c r="I129" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>693</v>
+      </c>
+      <c r="B130" t="s">
+        <v>1</v>
+      </c>
+      <c r="C130" s="9" t="s">
+        <v>694</v>
+      </c>
+      <c r="D130" t="s">
+        <v>695</v>
+      </c>
+      <c r="E130" t="s">
+        <v>696</v>
+      </c>
+      <c r="F130" t="s">
+        <v>697</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
+      <c r="H130" t="s">
+        <v>2</v>
+      </c>
+      <c r="I130" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>699</v>
+      </c>
+      <c r="B131" t="s">
+        <v>1</v>
+      </c>
+      <c r="C131" s="9" t="s">
+        <v>700</v>
+      </c>
+      <c r="D131" t="s">
+        <v>200</v>
+      </c>
+      <c r="E131" t="s">
+        <v>701</v>
+      </c>
+      <c r="F131" t="s">
+        <v>702</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+      <c r="H131" t="s">
+        <v>2</v>
+      </c>
+      <c r="I131" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>704</v>
+      </c>
+      <c r="B132" t="s">
+        <v>1</v>
+      </c>
+      <c r="C132" s="9" t="s">
+        <v>705</v>
+      </c>
+      <c r="D132" t="s">
+        <v>706</v>
+      </c>
+      <c r="E132" t="s">
+        <v>707</v>
+      </c>
+      <c r="F132" t="s">
+        <v>708</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="H132" t="s">
+        <v>2</v>
+      </c>
+      <c r="I132" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>710</v>
+      </c>
+      <c r="B133" t="s">
+        <v>1</v>
+      </c>
+      <c r="C133" s="9" t="s">
+        <v>711</v>
+      </c>
+      <c r="D133" t="s">
+        <v>712</v>
+      </c>
+      <c r="E133" t="s">
+        <v>175</v>
+      </c>
+      <c r="F133" t="s">
+        <v>713</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+      <c r="H133" t="s">
+        <v>2</v>
+      </c>
+      <c r="I133" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>715</v>
+      </c>
+      <c r="B134" t="s">
+        <v>1</v>
+      </c>
+      <c r="C134" s="9" t="s">
+        <v>716</v>
+      </c>
+      <c r="D134" t="s">
+        <v>717</v>
+      </c>
+      <c r="E134" t="s">
+        <v>718</v>
+      </c>
+      <c r="F134" t="s">
+        <v>541</v>
+      </c>
+      <c r="G134">
+        <v>0</v>
+      </c>
+      <c r="H134" t="s">
+        <v>2</v>
+      </c>
+      <c r="I134" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>720</v>
+      </c>
+      <c r="B135" t="s">
+        <v>1</v>
+      </c>
+      <c r="C135" s="9" t="s">
+        <v>721</v>
+      </c>
+      <c r="D135" t="s">
+        <v>722</v>
+      </c>
+      <c r="E135" t="s">
+        <v>723</v>
+      </c>
+      <c r="F135" t="s">
+        <v>724</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+      <c r="H135" t="s">
+        <v>2</v>
+      </c>
+      <c r="I135" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>726</v>
+      </c>
+      <c r="B136" t="s">
+        <v>1</v>
+      </c>
+      <c r="C136" s="9" t="s">
+        <v>727</v>
+      </c>
+      <c r="D136" t="s">
+        <v>728</v>
+      </c>
+      <c r="E136" t="s">
+        <v>729</v>
+      </c>
+      <c r="F136" t="s">
+        <v>730</v>
+      </c>
+      <c r="G136">
+        <v>0</v>
+      </c>
+      <c r="H136" t="s">
+        <v>2</v>
+      </c>
+      <c r="I136" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>732</v>
+      </c>
+      <c r="B137" t="s">
+        <v>1</v>
+      </c>
+      <c r="C137" s="9" t="s">
+        <v>733</v>
+      </c>
+      <c r="D137" t="s">
+        <v>734</v>
+      </c>
+      <c r="E137" t="s">
+        <v>735</v>
+      </c>
+      <c r="F137" t="s">
+        <v>736</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+      <c r="H137" t="s">
+        <v>2</v>
+      </c>
+      <c r="I137" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>738</v>
+      </c>
+      <c r="B138" t="s">
+        <v>1</v>
+      </c>
+      <c r="C138" s="9" t="s">
+        <v>739</v>
+      </c>
+      <c r="D138" t="s">
+        <v>740</v>
+      </c>
+      <c r="E138" t="s">
+        <v>741</v>
+      </c>
+      <c r="F138" t="s">
+        <v>742</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="H138" t="s">
+        <v>2</v>
+      </c>
+      <c r="I138" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>744</v>
+      </c>
+      <c r="B139" t="s">
+        <v>1</v>
+      </c>
+      <c r="C139" s="9" t="s">
+        <v>745</v>
+      </c>
+      <c r="D139" t="s">
+        <v>746</v>
+      </c>
+      <c r="E139" t="s">
+        <v>747</v>
+      </c>
+      <c r="F139" t="s">
+        <v>748</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="H139" t="s">
+        <v>2</v>
+      </c>
+      <c r="I139" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>750</v>
+      </c>
+      <c r="B140" t="s">
+        <v>1</v>
+      </c>
+      <c r="C140" s="9" t="s">
+        <v>751</v>
+      </c>
+      <c r="D140" t="s">
+        <v>752</v>
+      </c>
+      <c r="E140" t="s">
+        <v>753</v>
+      </c>
+      <c r="F140" t="s">
+        <v>754</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+      <c r="H140" t="s">
+        <v>2</v>
+      </c>
+      <c r="I140" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>756</v>
+      </c>
+      <c r="B141" t="s">
+        <v>1</v>
+      </c>
+      <c r="C141" s="9" t="s">
+        <v>757</v>
+      </c>
+      <c r="D141" t="s">
+        <v>758</v>
+      </c>
+      <c r="E141" t="s">
+        <v>759</v>
+      </c>
+      <c r="F141" t="s">
+        <v>760</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
+      <c r="H141" t="s">
+        <v>2</v>
+      </c>
+      <c r="I141" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>762</v>
+      </c>
+      <c r="B142" t="s">
+        <v>1</v>
+      </c>
+      <c r="C142" s="9" t="s">
+        <v>763</v>
+      </c>
+      <c r="D142" t="s">
+        <v>764</v>
+      </c>
+      <c r="E142" t="s">
+        <v>765</v>
+      </c>
+      <c r="F142" t="s">
+        <v>766</v>
+      </c>
+      <c r="G142">
+        <v>0</v>
+      </c>
+      <c r="H142" t="s">
+        <v>2</v>
+      </c>
+      <c r="I142" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>768</v>
+      </c>
+      <c r="B143" t="s">
+        <v>1</v>
+      </c>
+      <c r="C143" s="9" t="s">
+        <v>769</v>
+      </c>
+      <c r="D143" t="s">
+        <v>770</v>
+      </c>
+      <c r="E143" t="s">
+        <v>771</v>
+      </c>
+      <c r="F143" t="s">
+        <v>772</v>
+      </c>
+      <c r="G143">
+        <v>0</v>
+      </c>
+      <c r="H143" t="s">
+        <v>2</v>
+      </c>
+      <c r="I143" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>774</v>
+      </c>
+      <c r="B144" t="s">
+        <v>1</v>
+      </c>
+      <c r="C144" s="9" t="s">
+        <v>775</v>
+      </c>
+      <c r="D144" t="s">
+        <v>776</v>
+      </c>
+      <c r="E144" t="s">
+        <v>777</v>
+      </c>
+      <c r="F144" t="s">
+        <v>708</v>
+      </c>
+      <c r="G144">
+        <v>0</v>
+      </c>
+      <c r="H144" t="s">
+        <v>2</v>
+      </c>
+      <c r="I144" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>779</v>
+      </c>
+      <c r="B145" t="s">
+        <v>1</v>
+      </c>
+      <c r="C145" s="9" t="s">
+        <v>780</v>
+      </c>
+      <c r="D145" t="s">
+        <v>781</v>
+      </c>
+      <c r="E145" t="s">
+        <v>782</v>
+      </c>
+      <c r="F145" t="s">
+        <v>783</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
+      </c>
+      <c r="H145" t="s">
+        <v>2</v>
+      </c>
+      <c r="I145" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>785</v>
+      </c>
+      <c r="B146" t="s">
+        <v>1</v>
+      </c>
+      <c r="C146" s="9" t="s">
+        <v>786</v>
+      </c>
+      <c r="D146" t="s">
+        <v>787</v>
+      </c>
+      <c r="E146" t="s">
+        <v>788</v>
+      </c>
+      <c r="F146" t="s">
+        <v>789</v>
+      </c>
+      <c r="G146">
+        <v>0</v>
+      </c>
+      <c r="H146" t="s">
+        <v>2</v>
+      </c>
+      <c r="I146" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>791</v>
+      </c>
+      <c r="B147" t="s">
+        <v>1</v>
+      </c>
+      <c r="C147" s="9" t="s">
+        <v>792</v>
+      </c>
+      <c r="D147" t="s">
+        <v>793</v>
+      </c>
+      <c r="E147" t="s">
+        <v>794</v>
+      </c>
+      <c r="F147" t="s">
+        <v>708</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+      <c r="H147" t="s">
+        <v>2</v>
+      </c>
+      <c r="I147" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>796</v>
+      </c>
+      <c r="B148" t="s">
+        <v>1</v>
+      </c>
+      <c r="C148" s="9" t="s">
+        <v>797</v>
+      </c>
+      <c r="D148" t="s">
+        <v>798</v>
+      </c>
+      <c r="E148" t="s">
+        <v>799</v>
+      </c>
+      <c r="F148" t="s">
+        <v>708</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
+      <c r="H148" t="s">
+        <v>2</v>
+      </c>
+      <c r="I148" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>801</v>
+      </c>
+      <c r="B149" t="s">
+        <v>1</v>
+      </c>
+      <c r="C149" s="9" t="s">
+        <v>802</v>
+      </c>
+      <c r="D149" t="s">
+        <v>803</v>
+      </c>
+      <c r="E149" t="s">
+        <v>175</v>
+      </c>
+      <c r="F149" t="s">
+        <v>804</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
+      <c r="H149" t="s">
+        <v>2</v>
+      </c>
+      <c r="I149" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>806</v>
+      </c>
+      <c r="B150" t="s">
+        <v>1</v>
+      </c>
+      <c r="C150" s="9" t="s">
+        <v>807</v>
+      </c>
+      <c r="D150" t="s">
+        <v>808</v>
+      </c>
+      <c r="E150" t="s">
+        <v>809</v>
+      </c>
+      <c r="F150" t="s">
+        <v>810</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
+      <c r="H150" t="s">
+        <v>2</v>
+      </c>
+      <c r="I150" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>812</v>
+      </c>
+      <c r="B151" t="s">
+        <v>1</v>
+      </c>
+      <c r="C151" s="9" t="s">
+        <v>813</v>
+      </c>
+      <c r="D151" t="s">
+        <v>814</v>
+      </c>
+      <c r="E151" t="s">
+        <v>815</v>
+      </c>
+      <c r="F151" t="s">
+        <v>541</v>
+      </c>
+      <c r="G151">
+        <v>0</v>
+      </c>
+      <c r="H151" t="s">
+        <v>2</v>
+      </c>
+      <c r="I151" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>817</v>
+      </c>
+      <c r="B152" t="s">
+        <v>1</v>
+      </c>
+      <c r="C152" s="9" t="s">
+        <v>818</v>
+      </c>
+      <c r="D152" t="s">
+        <v>819</v>
+      </c>
+      <c r="E152" t="s">
+        <v>820</v>
+      </c>
+      <c r="F152" t="s">
+        <v>821</v>
+      </c>
+      <c r="G152">
+        <v>0</v>
+      </c>
+      <c r="H152" t="s">
+        <v>2</v>
+      </c>
+      <c r="I152" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>823</v>
+      </c>
+      <c r="B153" t="s">
+        <v>1</v>
+      </c>
+      <c r="C153" s="9" t="s">
+        <v>824</v>
+      </c>
+      <c r="D153" t="s">
+        <v>825</v>
+      </c>
+      <c r="E153" t="s">
+        <v>826</v>
+      </c>
+      <c r="F153" t="s">
+        <v>827</v>
+      </c>
+      <c r="G153">
+        <v>0</v>
+      </c>
+      <c r="H153" t="s">
+        <v>2</v>
+      </c>
+      <c r="I153" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>829</v>
+      </c>
+      <c r="B154" t="s">
+        <v>1</v>
+      </c>
+      <c r="C154" s="9" t="s">
+        <v>830</v>
+      </c>
+      <c r="D154" t="s">
+        <v>831</v>
+      </c>
+      <c r="E154" t="s">
+        <v>832</v>
+      </c>
+      <c r="F154" t="s">
+        <v>833</v>
+      </c>
+      <c r="G154">
+        <v>0</v>
+      </c>
+      <c r="H154" t="s">
+        <v>2</v>
+      </c>
+      <c r="I154" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>835</v>
+      </c>
+      <c r="B155" t="s">
+        <v>1</v>
+      </c>
+      <c r="C155" s="9" t="s">
+        <v>836</v>
+      </c>
+      <c r="D155" t="s">
+        <v>837</v>
+      </c>
+      <c r="E155" t="s">
+        <v>838</v>
+      </c>
+      <c r="F155" t="s">
+        <v>839</v>
+      </c>
+      <c r="G155">
+        <v>0</v>
+      </c>
+      <c r="H155" t="s">
+        <v>2</v>
+      </c>
+      <c r="I155" t="s">
+        <v>840</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr filterPrivacy="true"/>
   <bookViews>
-    <workbookView xWindow="5790" yWindow="1920" windowWidth="21600" windowHeight="11295"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="841">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1592" uniqueCount="1592">
   <si>
     <t>S051</t>
   </si>
@@ -2548,6 +2548,2259 @@
   </si>
   <si>
     <t>static/uploads/S151.png</t>
+  </si>
+  <si>
+    <t>S152</t>
+  </si>
+  <si>
+    <t>3319070603690001</t>
+  </si>
+  <si>
+    <t>081382563100</t>
+  </si>
+  <si>
+    <t>RT 05/08 DESA KARANGBENER, KEC BAE, KAB KUDUS</t>
+  </si>
+  <si>
+    <t>static/uploads/S152.png</t>
+  </si>
+  <si>
+    <t>S153</t>
+  </si>
+  <si>
+    <t>3321010209830001</t>
+  </si>
+  <si>
+    <t>ARI YADI</t>
+  </si>
+  <si>
+    <t>089631177887</t>
+  </si>
+  <si>
+    <t>BARURSARI ASRI RT 03/05 DESA BATURASARI, KEC MRANGGEN, KAB DEMAK</t>
+  </si>
+  <si>
+    <t>static/uploads/S153.png</t>
+  </si>
+  <si>
+    <t>S154</t>
+  </si>
+  <si>
+    <t>3319070403680002</t>
+  </si>
+  <si>
+    <t>MUNAWIR</t>
+  </si>
+  <si>
+    <t>081228337905</t>
+  </si>
+  <si>
+    <t>MURIA INDAH RT 08/07 DESA GONDANGMANIS, KEC BAE, KAB KUDUS</t>
+  </si>
+  <si>
+    <t>static/uploads/S154.png</t>
+  </si>
+  <si>
+    <t>S155</t>
+  </si>
+  <si>
+    <t>3319032006710002</t>
+  </si>
+  <si>
+    <t>NOH HADI</t>
+  </si>
+  <si>
+    <t>087833612763</t>
+  </si>
+  <si>
+    <t>RT 05/04 DESA NGEMBAL KULON, KEC JATI, KAB KUDUS</t>
+  </si>
+  <si>
+    <t>static/uploads/S155.png</t>
+  </si>
+  <si>
+    <t>S156</t>
+  </si>
+  <si>
+    <t>3320030403900006</t>
+  </si>
+  <si>
+    <t>HANDOKO MUFTI HADI</t>
+  </si>
+  <si>
+    <t>0895360992188</t>
+  </si>
+  <si>
+    <t>RT 07/03 DESA KALIPUCANG, KEC WELAHAN, KAB JEPARA</t>
+  </si>
+  <si>
+    <t>static/uploads/S156.png</t>
+  </si>
+  <si>
+    <t>S157</t>
+  </si>
+  <si>
+    <t>3320021709680003</t>
+  </si>
+  <si>
+    <t>SULIKAN</t>
+  </si>
+  <si>
+    <t>082323265199</t>
+  </si>
+  <si>
+    <t>RT 06/01 DESA KRASAK, KEC PECANGAAN, KAB JEPARA</t>
+  </si>
+  <si>
+    <t>static/uploads/S157.png</t>
+  </si>
+  <si>
+    <t>S158</t>
+  </si>
+  <si>
+    <t>3318022701840002</t>
+  </si>
+  <si>
+    <t>NURUL ANWAR</t>
+  </si>
+  <si>
+    <t>082334718576</t>
+  </si>
+  <si>
+    <t>RT 02/04 DESA CENDONO, KEC DAWE, KAB KUDUS</t>
+  </si>
+  <si>
+    <t>static/uploads/S158.png</t>
+  </si>
+  <si>
+    <t>S159</t>
+  </si>
+  <si>
+    <t>3319060408860001</t>
+  </si>
+  <si>
+    <t>ABDUL ISEH</t>
+  </si>
+  <si>
+    <t>085225640286</t>
+  </si>
+  <si>
+    <t>KARANG RT 03/07 DESA JEKULO, KEC JEKULO, KAB KUDUS</t>
+  </si>
+  <si>
+    <t>static/uploads/S159.png</t>
+  </si>
+  <si>
+    <t>S160</t>
+  </si>
+  <si>
+    <t>3319060207820008</t>
+  </si>
+  <si>
+    <t>MOKHAMMAD SUGENG</t>
+  </si>
+  <si>
+    <t>081325207876</t>
+  </si>
+  <si>
+    <t>RT 02/08 DESA TERBAN, KEC JEKULO, KAB KUDUS</t>
+  </si>
+  <si>
+    <t>static/uploads/S160.png</t>
+  </si>
+  <si>
+    <t>S161</t>
+  </si>
+  <si>
+    <t>3321060404780009</t>
+  </si>
+  <si>
+    <t>AGUS SHOMAD</t>
+  </si>
+  <si>
+    <t>08167506698</t>
+  </si>
+  <si>
+    <t>RT 02/01 DESA KALIANYAR, KEC WONOSALAM, KAB DEMAK</t>
+  </si>
+  <si>
+    <t>static/uploads/S161.png</t>
+  </si>
+  <si>
+    <t>S162</t>
+  </si>
+  <si>
+    <t>3318200208590001</t>
+  </si>
+  <si>
+    <t>JAPAR</t>
+  </si>
+  <si>
+    <t>085295369503</t>
+  </si>
+  <si>
+    <t>RT 06/01 DESA KENANTI, KEC DUKUHSETI, KAB PATI</t>
+  </si>
+  <si>
+    <t>static/uploads/S162.png</t>
+  </si>
+  <si>
+    <t>S163</t>
+  </si>
+  <si>
+    <t>3321142102720003</t>
+  </si>
+  <si>
+    <t>MIZAN KALIMI</t>
+  </si>
+  <si>
+    <t>085226498731</t>
+  </si>
+  <si>
+    <t>RT 01/02 DESA PRIGI, KEC KEBONAGUNG, KAB DEMAK</t>
+  </si>
+  <si>
+    <t>static/uploads/S163.png</t>
+  </si>
+  <si>
+    <t>S164</t>
+  </si>
+  <si>
+    <t>3319082906780003</t>
+  </si>
+  <si>
+    <t>SULKAN</t>
+  </si>
+  <si>
+    <t>082154722044</t>
+  </si>
+  <si>
+    <t>RT 06/01 DESA GETAS SRABI, KEC GEBOG, KAB KUDUS</t>
+  </si>
+  <si>
+    <t>static/uploads/S164.png</t>
+  </si>
+  <si>
+    <t>S165</t>
+  </si>
+  <si>
+    <t>3321070902890001</t>
+  </si>
+  <si>
+    <t>KUSMIYANTO</t>
+  </si>
+  <si>
+    <t>082220464718</t>
+  </si>
+  <si>
+    <t>WONOPOLO RT 01/01 DESA BOTOSENGON, KEC DEMPET, KAB DEMAK</t>
+  </si>
+  <si>
+    <t>static/uploads/S165.png</t>
+  </si>
+  <si>
+    <t>S166</t>
+  </si>
+  <si>
+    <t>3317041809780001</t>
+  </si>
+  <si>
+    <t>SUYANTO</t>
+  </si>
+  <si>
+    <t>085231036410</t>
+  </si>
+  <si>
+    <t>RT 02/01 DESA GADING, KEC SALE, KAB REMBANG</t>
+  </si>
+  <si>
+    <t>static/uploads/S166.png</t>
+  </si>
+  <si>
+    <t>S167</t>
+  </si>
+  <si>
+    <t>3319032112830004</t>
+  </si>
+  <si>
+    <t>ISWANTO</t>
+  </si>
+  <si>
+    <t>085852425268</t>
+  </si>
+  <si>
+    <t>RT 02/03 GETAS PEJATEN, KEC JATI, KAB KUDUS</t>
+  </si>
+  <si>
+    <t>static/uploads/S167.png</t>
+  </si>
+  <si>
+    <t>S168</t>
+  </si>
+  <si>
+    <t>3318020908850002</t>
+  </si>
+  <si>
+    <t>ALI RIDHO</t>
+  </si>
+  <si>
+    <t>081225299071</t>
+  </si>
+  <si>
+    <t>RT 07/06 DESA KAYEN, KEC KAYEN, KAB PATI</t>
+  </si>
+  <si>
+    <t>static/uploads/S168.png</t>
+  </si>
+  <si>
+    <t>S169</t>
+  </si>
+  <si>
+    <t>3319062704050002</t>
+  </si>
+  <si>
+    <t>AHMAD MISWAR JOHAN ANAS</t>
+  </si>
+  <si>
+    <t>085712421209</t>
+  </si>
+  <si>
+    <t>RT 08/06 DESA TANJUNGREJO, KEC JEKULO, KAB KUDUS</t>
+  </si>
+  <si>
+    <t>static/uploads/S169.png</t>
+  </si>
+  <si>
+    <t>S170</t>
+  </si>
+  <si>
+    <t>3319062812790001</t>
+  </si>
+  <si>
+    <t>SUTIYONO</t>
+  </si>
+  <si>
+    <t>087704730403</t>
+  </si>
+  <si>
+    <t>static/uploads/S170.png</t>
+  </si>
+  <si>
+    <t>S171</t>
+  </si>
+  <si>
+    <t>3319060611040002</t>
+  </si>
+  <si>
+    <t>MOHAMMAD ADITIYA FIRMANSYAH</t>
+  </si>
+  <si>
+    <t>085640909535</t>
+  </si>
+  <si>
+    <t>KALISEGER RT 03/08 DESA TERBAN, KEC JEKULO, KAB KUDUS</t>
+  </si>
+  <si>
+    <t>static/uploads/S171.png</t>
+  </si>
+  <si>
+    <t>S172</t>
+  </si>
+  <si>
+    <t>3318121709040004</t>
+  </si>
+  <si>
+    <t>MOCHAMAD SOLIFATUL ANSORI</t>
+  </si>
+  <si>
+    <t>085812844566</t>
+  </si>
+  <si>
+    <t>TAMBAKAN RT 01/02 DESA BUMIREJO, KEC MARGOREJO, KAB PATI</t>
+  </si>
+  <si>
+    <t>static/uploads/S172.png</t>
+  </si>
+  <si>
+    <t>S173</t>
+  </si>
+  <si>
+    <t>3319061001020004</t>
+  </si>
+  <si>
+    <t>BRIAN PRASETYA HARFIAN</t>
+  </si>
+  <si>
+    <t>081327065882</t>
+  </si>
+  <si>
+    <t>RT 04/07 DESA TERBAN, KEC JEKULO, KAB KUDUS</t>
+  </si>
+  <si>
+    <t>static/uploads/S173.png</t>
+  </si>
+  <si>
+    <t>S174</t>
+  </si>
+  <si>
+    <t>3319092510030004</t>
+  </si>
+  <si>
+    <t>WAHYU FITRI PURBA PRASANGKA</t>
+  </si>
+  <si>
+    <t>085712369922</t>
+  </si>
+  <si>
+    <t>RT 03/02 DESA COLO, KEC DAWER, KAB KUDUS</t>
+  </si>
+  <si>
+    <t>static/uploads/S174.png</t>
+  </si>
+  <si>
+    <t>S175</t>
+  </si>
+  <si>
+    <t>3319050902950004</t>
+  </si>
+  <si>
+    <t>RUDI PURNOMO</t>
+  </si>
+  <si>
+    <t>081215707380</t>
+  </si>
+  <si>
+    <t>RT 04/01 DESA MEJOBO, KEC MEJOBO, KAB KUDUS</t>
+  </si>
+  <si>
+    <t>static/uploads/S175.png</t>
+  </si>
+  <si>
+    <t>S176</t>
+  </si>
+  <si>
+    <t>3318042710840001</t>
+  </si>
+  <si>
+    <t>SUYIKNO</t>
+  </si>
+  <si>
+    <t>088279322265</t>
+  </si>
+  <si>
+    <t>RT 01/01 DESA DEGAN, KEC WINONG, KAB PATI</t>
+  </si>
+  <si>
+    <t>static/uploads/S176.png</t>
+  </si>
+  <si>
+    <t>S177</t>
+  </si>
+  <si>
+    <t>3319073112590129</t>
+  </si>
+  <si>
+    <t>SUKARNO</t>
+  </si>
+  <si>
+    <t>081326457830</t>
+  </si>
+  <si>
+    <t>RT 01/07 DESA KARANGBENER, KEC BAE, KAB KUDUS</t>
+  </si>
+  <si>
+    <t>static/uploads/S177.png</t>
+  </si>
+  <si>
+    <t>S178</t>
+  </si>
+  <si>
+    <t>3319062508800002</t>
+  </si>
+  <si>
+    <t>085292475117</t>
+  </si>
+  <si>
+    <t>TLOGO RT 06/02 DESA GONDOHARUM, KEC JEKULO, KAB KUDUS</t>
+  </si>
+  <si>
+    <t>static/uploads/S178.png</t>
+  </si>
+  <si>
+    <t>S179</t>
+  </si>
+  <si>
+    <t>3319071608860001</t>
+  </si>
+  <si>
+    <t>AGUS PRASTIYO</t>
+  </si>
+  <si>
+    <t>082141858414</t>
+  </si>
+  <si>
+    <t>RT 04/05 DESA BULUNG KULON, KEC JEKULO, KAB KUDUS</t>
+  </si>
+  <si>
+    <t>static/uploads/S179.png</t>
+  </si>
+  <si>
+    <t>S180</t>
+  </si>
+  <si>
+    <t>3319082110760002</t>
+  </si>
+  <si>
+    <t>NGATMONO</t>
+  </si>
+  <si>
+    <t>085327614459</t>
+  </si>
+  <si>
+    <t>RT 03/01 DESA MENAWAN, KEC GEBOG, KAB KUDUS</t>
+  </si>
+  <si>
+    <t>static/uploads/S180.png</t>
+  </si>
+  <si>
+    <t>S181</t>
+  </si>
+  <si>
+    <t>3319032010800003</t>
+  </si>
+  <si>
+    <t>ZUNAEDI</t>
+  </si>
+  <si>
+    <t>085356216778</t>
+  </si>
+  <si>
+    <t>RT 03/02 DESA JEPANG PAKIS, KEC JATI, KAB KUDUS</t>
+  </si>
+  <si>
+    <t>static/uploads/S181.png</t>
+  </si>
+  <si>
+    <t>S182</t>
+  </si>
+  <si>
+    <t>3319071304920007</t>
+  </si>
+  <si>
+    <t>FENDY FAUZI</t>
+  </si>
+  <si>
+    <t>085716040795</t>
+  </si>
+  <si>
+    <t>RT 07/06 DESA NGEMBALREJO, KEC BAE, KAB KUDUS</t>
+  </si>
+  <si>
+    <t>static/uploads/S182.png</t>
+  </si>
+  <si>
+    <t>S183</t>
+  </si>
+  <si>
+    <t>3372050511770004</t>
+  </si>
+  <si>
+    <t>KUS HARIYANTO</t>
+  </si>
+  <si>
+    <t>081229316611</t>
+  </si>
+  <si>
+    <t>NGADISONO RT 02/02 DESA JOGLO, KEC BANJARSARI, KAB KUDUS</t>
+  </si>
+  <si>
+    <t>static/uploads/S183.png</t>
+  </si>
+  <si>
+    <t>S184</t>
+  </si>
+  <si>
+    <t>6209051010830001</t>
+  </si>
+  <si>
+    <t>M ADI SUDAHIR</t>
+  </si>
+  <si>
+    <t>082324894175</t>
+  </si>
+  <si>
+    <t>RT 05/02 DESA MEGAL, KEC PAMOTAN, KAB REMBANG</t>
+  </si>
+  <si>
+    <t>static/uploads/S184.png</t>
+  </si>
+  <si>
+    <t>S185</t>
+  </si>
+  <si>
+    <t>3320120405810003</t>
+  </si>
+  <si>
+    <t>NUR SAID</t>
+  </si>
+  <si>
+    <t>082328257439</t>
+  </si>
+  <si>
+    <t>PETE RT 04/02 DESA BEDANPETE, KEC NALUMSARI, KAB JEPARA</t>
+  </si>
+  <si>
+    <t>static/uploads/S185.png</t>
+  </si>
+  <si>
+    <t>S186</t>
+  </si>
+  <si>
+    <t>3317071305820001</t>
+  </si>
+  <si>
+    <t>ZAINAL ARIFIN</t>
+  </si>
+  <si>
+    <t>081382632228</t>
+  </si>
+  <si>
+    <t>RT 02/02 DESA SUMBEREJO, KEC PAMOTAN, KAB REMBANG</t>
+  </si>
+  <si>
+    <t>static/uploads/S186.png</t>
+  </si>
+  <si>
+    <t>S187</t>
+  </si>
+  <si>
+    <t>3312102604890001</t>
+  </si>
+  <si>
+    <t>ARIS</t>
+  </si>
+  <si>
+    <t>081338388835</t>
+  </si>
+  <si>
+    <t>BELANGAN RT 03/19 DESA GUNUNGAN, KEC MANYARAN, KAB WONOGIRI</t>
+  </si>
+  <si>
+    <t>static/uploads/S187.png</t>
+  </si>
+  <si>
+    <t>S188</t>
+  </si>
+  <si>
+    <t>3319061212700006</t>
+  </si>
+  <si>
+    <t>SHOLIKAN</t>
+  </si>
+  <si>
+    <t>082133456096</t>
+  </si>
+  <si>
+    <t>static/uploads/S188.png</t>
+  </si>
+  <si>
+    <t>S189</t>
+  </si>
+  <si>
+    <t>3315160207790003</t>
+  </si>
+  <si>
+    <t>SUYITNO</t>
+  </si>
+  <si>
+    <t>085769797761</t>
+  </si>
+  <si>
+    <t>RT 03/02 DESA ANGGASWANGI, KEC GODONG, KAB GROBOGAN</t>
+  </si>
+  <si>
+    <t>static/uploads/S189.png</t>
+  </si>
+  <si>
+    <t>S190</t>
+  </si>
+  <si>
+    <t>3318112808880003</t>
+  </si>
+  <si>
+    <t>083836229260</t>
+  </si>
+  <si>
+    <t>RT 03/02 DESA TANJANG, KEC GABUS, KAB GROBOGAN</t>
+  </si>
+  <si>
+    <t>static/uploads/S190.png</t>
+  </si>
+  <si>
+    <t>S191</t>
+  </si>
+  <si>
+    <t>3318121111740003</t>
+  </si>
+  <si>
+    <t>SUPRIANTO</t>
+  </si>
+  <si>
+    <t>RANGGAH RT 04/02 DESA METRAMAN, KEC MARGOREJO, KAB PATI</t>
+  </si>
+  <si>
+    <t>static/uploads/S191.png</t>
+  </si>
+  <si>
+    <t>S192</t>
+  </si>
+  <si>
+    <t>3319041006760002</t>
+  </si>
+  <si>
+    <t>SONO MULYADI</t>
+  </si>
+  <si>
+    <t>085701917850</t>
+  </si>
+  <si>
+    <t>RT 03/04 DESA WATES, KEC UNDAAN, KAB KUDUS</t>
+  </si>
+  <si>
+    <t>static/uploads/S192.png</t>
+  </si>
+  <si>
+    <t>S193</t>
+  </si>
+  <si>
+    <t>3201070505820017</t>
+  </si>
+  <si>
+    <t>HENDRI SUTIKNO</t>
+  </si>
+  <si>
+    <t>081310399304</t>
+  </si>
+  <si>
+    <t>GRIYA CILEUNGSI III RT 03/14 DESA MAMPIR, KEC CILEUNGSI, KAB BOGOR</t>
+  </si>
+  <si>
+    <t>static/uploads/S193.png</t>
+  </si>
+  <si>
+    <t>S194</t>
+  </si>
+  <si>
+    <t>3319013110670002</t>
+  </si>
+  <si>
+    <t>081228038779</t>
+  </si>
+  <si>
+    <t>MANDARAN RT 08/02 DESA MIJEN, KEC KALIWUNGU, KAB KUDUS</t>
+  </si>
+  <si>
+    <t>static/uploads/S194.png</t>
+  </si>
+  <si>
+    <t>S195</t>
+  </si>
+  <si>
+    <t>3318111003740001</t>
+  </si>
+  <si>
+    <t>MOH AMIN</t>
+  </si>
+  <si>
+    <t>085229794749</t>
+  </si>
+  <si>
+    <t>RT 02/04 DESA TANJUNGANOM, KEC GABUS, KAB PATI</t>
+  </si>
+  <si>
+    <t>static/uploads/S195.png</t>
+  </si>
+  <si>
+    <t>S196</t>
+  </si>
+  <si>
+    <t>3306062106810004</t>
+  </si>
+  <si>
+    <t>ZUNI HIDAYAT</t>
+  </si>
+  <si>
+    <t>081215894171</t>
+  </si>
+  <si>
+    <t>RT 04/09 DESA BALEDONO, KEC PURWOREJO, KAB PURWOREJO</t>
+  </si>
+  <si>
+    <t>static/uploads/S196.png</t>
+  </si>
+  <si>
+    <t>S197</t>
+  </si>
+  <si>
+    <t>3329091505780015</t>
+  </si>
+  <si>
+    <t>SLAMET RIYADI</t>
+  </si>
+  <si>
+    <t>082327259840</t>
+  </si>
+  <si>
+    <t>RT 01/01 DESA PASAR BATANG, KEC BREBES, KAB BREBES</t>
+  </si>
+  <si>
+    <t>static/uploads/S197.png</t>
+  </si>
+  <si>
+    <t>S198</t>
+  </si>
+  <si>
+    <t>3506061105930002</t>
+  </si>
+  <si>
+    <t>MOH TUTUT ANGGRAITO</t>
+  </si>
+  <si>
+    <t>082228159617</t>
+  </si>
+  <si>
+    <t>TIRTOMULYO RT 14/03 DESA JOHO, KEC WATES, KAB KEDIRI</t>
+  </si>
+  <si>
+    <t>static/uploads/S198.png</t>
+  </si>
+  <si>
+    <t>S199</t>
+  </si>
+  <si>
+    <t>3319070104590001</t>
+  </si>
+  <si>
+    <t>085328277800</t>
+  </si>
+  <si>
+    <t>NGELO RT 05/07 DESA KARANGBENER, KEC BAE, KAB KUDUS</t>
+  </si>
+  <si>
+    <t>static/uploads/S199.png</t>
+  </si>
+  <si>
+    <t>S200</t>
+  </si>
+  <si>
+    <t>3321082502780001</t>
+  </si>
+  <si>
+    <t>SUGIHARTO</t>
+  </si>
+  <si>
+    <t>085876997264</t>
+  </si>
+  <si>
+    <t>RT 01/05 DESA GEDANGALAS, KEC GAJAH, KAB DEMAK</t>
+  </si>
+  <si>
+    <t>static/uploads/S200.png</t>
+  </si>
+  <si>
+    <t>S201</t>
+  </si>
+  <si>
+    <t>3319031007720003</t>
+  </si>
+  <si>
+    <t>082123415293</t>
+  </si>
+  <si>
+    <t>RT 01/03 DESA JEPANG PAKIS, KEC JATI, KAB KUDUS</t>
+  </si>
+  <si>
+    <t>static/uploads/S201.png</t>
+  </si>
+  <si>
+    <t>S202</t>
+  </si>
+  <si>
+    <t>3319032302000009</t>
+  </si>
+  <si>
+    <t>MUHAMMAD YUSUF</t>
+  </si>
+  <si>
+    <t>089621117911</t>
+  </si>
+  <si>
+    <t>RT 03/03 DESA NGEMBAL KULON, KEC JATI, KAB KUDUS</t>
+  </si>
+  <si>
+    <t>static/uploads/S202.png</t>
+  </si>
+  <si>
+    <t>S203</t>
+  </si>
+  <si>
+    <t>3319043112670004</t>
+  </si>
+  <si>
+    <t>SUPRIYADI</t>
+  </si>
+  <si>
+    <t>085878115486</t>
+  </si>
+  <si>
+    <t>RT 02/03 DESA KUTUK, KEC UNDAAN, KAB KUDUS</t>
+  </si>
+  <si>
+    <t>static/uploads/S203.png</t>
+  </si>
+  <si>
+    <t>S204</t>
+  </si>
+  <si>
+    <t>1871031706900002</t>
+  </si>
+  <si>
+    <t>TOMI SAPUTRA</t>
+  </si>
+  <si>
+    <t>081367179014</t>
+  </si>
+  <si>
+    <t>JL BLORA RT 02 DESA SEGALA MIDER, KEC TANJUNGKARANG BARAT, KOTA BANDAR</t>
+  </si>
+  <si>
+    <t>static/uploads/S204.png</t>
+  </si>
+  <si>
+    <t>S205</t>
+  </si>
+  <si>
+    <t>3319030911800002</t>
+  </si>
+  <si>
+    <t>HARTONO</t>
+  </si>
+  <si>
+    <t>081325629572</t>
+  </si>
+  <si>
+    <t>static/uploads/S205.png</t>
+  </si>
+  <si>
+    <t>S206</t>
+  </si>
+  <si>
+    <t>3374091404080003</t>
+  </si>
+  <si>
+    <t>RICKY SEMBODO UMBAR LELONO</t>
+  </si>
+  <si>
+    <t>0895327041871</t>
+  </si>
+  <si>
+    <t>KALILANGSE RT 04/05 DESA GAJAHMUNGKUKUR, KEC GAJAHMUNGKUR, KOTA SEMARANG</t>
+  </si>
+  <si>
+    <t>static/uploads/S206.png</t>
+  </si>
+  <si>
+    <t>S207</t>
+  </si>
+  <si>
+    <t>3318091205780004</t>
+  </si>
+  <si>
+    <t>SUPARMIN</t>
+  </si>
+  <si>
+    <t>0882003674987</t>
+  </si>
+  <si>
+    <t>PENCIL RT 06/03 DESA TONDOMULYO, KEC JAKENAN, KAB PATI</t>
+  </si>
+  <si>
+    <t>static/uploads/S207.png</t>
+  </si>
+  <si>
+    <t>S208</t>
+  </si>
+  <si>
+    <t>3325100307050004</t>
+  </si>
+  <si>
+    <t>FERGI DIAZ ARYANTO</t>
+  </si>
+  <si>
+    <t>087753572565</t>
+  </si>
+  <si>
+    <t>RT 10/03 DESA TULIS, KEC TULIS, KAB BATANG</t>
+  </si>
+  <si>
+    <t>static/uploads/S208.png</t>
+  </si>
+  <si>
+    <t>S209</t>
+  </si>
+  <si>
+    <t>3319030101790006</t>
+  </si>
+  <si>
+    <t>MOH ARIF FAISAL</t>
+  </si>
+  <si>
+    <t>RT 03/02 DESA GETAS PEJATEN, KEC JATI, KAB KUDUS</t>
+  </si>
+  <si>
+    <t>static/uploads/S209.png</t>
+  </si>
+  <si>
+    <t>S210</t>
+  </si>
+  <si>
+    <t>3319022004800005</t>
+  </si>
+  <si>
+    <t>NOOR EFENDY</t>
+  </si>
+  <si>
+    <t>085293994777</t>
+  </si>
+  <si>
+    <t>JETAK KEMBANG RT 02/05 DESA SUNGGINGAN, KEC KOTA, KAB KUDUS</t>
+  </si>
+  <si>
+    <t>static/uploads/S210.png</t>
+  </si>
+  <si>
+    <t>S211</t>
+  </si>
+  <si>
+    <t>3319032106780007</t>
+  </si>
+  <si>
+    <t>ABDUL MUNIF</t>
+  </si>
+  <si>
+    <t>082330235571</t>
+  </si>
+  <si>
+    <t>RT 02/04 DESA LORAM KULON, KEC JATI, KAB KUDUS</t>
+  </si>
+  <si>
+    <t>static/uploads/S211.png</t>
+  </si>
+  <si>
+    <t>S212</t>
+  </si>
+  <si>
+    <t>3320121211010004</t>
+  </si>
+  <si>
+    <t>NOR SAID</t>
+  </si>
+  <si>
+    <t>087792135353</t>
+  </si>
+  <si>
+    <t>PEJATEN RT 06/03 DESA TUNGGUL PANDEAN, KEC NALUMSARI, KAB JEPARA</t>
+  </si>
+  <si>
+    <t>static/uploads/S212.png</t>
+  </si>
+  <si>
+    <t>S213</t>
+  </si>
+  <si>
+    <t>3321061309990002</t>
+  </si>
+  <si>
+    <t>MUHAMMAD RIDWAN SOFIYULLOH</t>
+  </si>
+  <si>
+    <t>085290622621</t>
+  </si>
+  <si>
+    <t>DEMUNG RT 01/04 DESA KERANGKULON, KEC WONOSALAM, KAB DEMAK</t>
+  </si>
+  <si>
+    <t>static/uploads/S213.png</t>
+  </si>
+  <si>
+    <t>S214</t>
+  </si>
+  <si>
+    <t>3319061306880001</t>
+  </si>
+  <si>
+    <t>JAMAAH</t>
+  </si>
+  <si>
+    <t>085727130418</t>
+  </si>
+  <si>
+    <t>static/uploads/S214.png</t>
+  </si>
+  <si>
+    <t>S215</t>
+  </si>
+  <si>
+    <t>3319081808650001</t>
+  </si>
+  <si>
+    <t>SUKARMAN</t>
+  </si>
+  <si>
+    <t>085226272063</t>
+  </si>
+  <si>
+    <t>RT 01/02 DESA JURANG, KEC GEBOG, KAB KUDUS</t>
+  </si>
+  <si>
+    <t>static/uploads/S215.png</t>
+  </si>
+  <si>
+    <t>S216</t>
+  </si>
+  <si>
+    <t>3315040104820004</t>
+  </si>
+  <si>
+    <t>SUWARNO</t>
+  </si>
+  <si>
+    <t>KRAJAN RT 05/06 DESA DIMORO, KEC TOROH, KAB BROBOGAN</t>
+  </si>
+  <si>
+    <t>static/uploads/S216.png</t>
+  </si>
+  <si>
+    <t>S217</t>
+  </si>
+  <si>
+    <t>3307122302780005</t>
+  </si>
+  <si>
+    <t>ANDI BACHTIAR</t>
+  </si>
+  <si>
+    <t>081222557839</t>
+  </si>
+  <si>
+    <t>RT 03/05 DESA GARUNG, GARUNG, KAB WONOSOBO</t>
+  </si>
+  <si>
+    <t>static/uploads/S217.png</t>
+  </si>
+  <si>
+    <t>S218</t>
+  </si>
+  <si>
+    <t>3318111506830012</t>
+  </si>
+  <si>
+    <t>082135778885</t>
+  </si>
+  <si>
+    <t>PASINGGAHAN RT 05/02 DESA SUGIHREJO, KEC GABUS, KAB PATI</t>
+  </si>
+  <si>
+    <t>static/uploads/S218.png</t>
+  </si>
+  <si>
+    <t>S219</t>
+  </si>
+  <si>
+    <t>3310250703020001</t>
+  </si>
+  <si>
+    <t>ROVI ALEX ISNANTO</t>
+  </si>
+  <si>
+    <t>085600554794</t>
+  </si>
+  <si>
+    <t>SENDANGAN RT 03/09 DESA MOJAYAN, KEC TENGAH, KAB KLATEN</t>
+  </si>
+  <si>
+    <t>static/uploads/S219.png</t>
+  </si>
+  <si>
+    <t>S220</t>
+  </si>
+  <si>
+    <t>3321062107980003</t>
+  </si>
+  <si>
+    <t>SLAMET EKA SAFIRA</t>
+  </si>
+  <si>
+    <t>089610175469</t>
+  </si>
+  <si>
+    <t>RT 05/03 DESA KUNCIR, KEC WONOSALAM, KAB DEMAK</t>
+  </si>
+  <si>
+    <t>static/uploads/S220.png</t>
+  </si>
+  <si>
+    <t>S221</t>
+  </si>
+  <si>
+    <t>3320030111800003</t>
+  </si>
+  <si>
+    <t>MUNASEH</t>
+  </si>
+  <si>
+    <t>088226690673</t>
+  </si>
+  <si>
+    <t>BRANG WETAN RT 05/03 DESA KALIPUCANG WETAN, KEC WELAHAN, KAB JEPARA</t>
+  </si>
+  <si>
+    <t>static/uploads/S221.png</t>
+  </si>
+  <si>
+    <t>S222</t>
+  </si>
+  <si>
+    <t>3319020505960006</t>
+  </si>
+  <si>
+    <t>ABDUL AZIS</t>
+  </si>
+  <si>
+    <t>085727184247</t>
+  </si>
+  <si>
+    <t>RT 01/07 DESA PASURUHAN LOR, KEC JATI, KAB KUDUS</t>
+  </si>
+  <si>
+    <t>static/uploads/S222.png</t>
+  </si>
+  <si>
+    <t>S223</t>
+  </si>
+  <si>
+    <t>3321050112580003</t>
+  </si>
+  <si>
+    <t>MUNAWAR</t>
+  </si>
+  <si>
+    <t>RT 06/02 DESA DUKUN, KEC KARANG TENGAH, KAB DEMAK</t>
+  </si>
+  <si>
+    <t>static/uploads/S223.png</t>
+  </si>
+  <si>
+    <t>S224</t>
+  </si>
+  <si>
+    <t>3319061904960002</t>
+  </si>
+  <si>
+    <t>DEDI PURNOMO</t>
+  </si>
+  <si>
+    <t>088228696846</t>
+  </si>
+  <si>
+    <t>KRAJAN RT 03/01 DESA KLALING, KEC JEKULO, KAB KUDUS</t>
+  </si>
+  <si>
+    <t>static/uploads/S224.png</t>
+  </si>
+  <si>
+    <t>S225</t>
+  </si>
+  <si>
+    <t>1809011012960008</t>
+  </si>
+  <si>
+    <t>DENI SAPUTRA</t>
+  </si>
+  <si>
+    <t>083116871210</t>
+  </si>
+  <si>
+    <t>MARGOREJO RT 02/07 DESA KURUNGAN NYAWA, KEC GEDONG TATAAN, KAB PESAWARAN</t>
+  </si>
+  <si>
+    <t>static/uploads/S225.png</t>
+  </si>
+  <si>
+    <t>S226</t>
+  </si>
+  <si>
+    <t>3318031310650001</t>
+  </si>
+  <si>
+    <t>BUSONO</t>
+  </si>
+  <si>
+    <t>081226701263</t>
+  </si>
+  <si>
+    <t>SONO RT 02/04 DESA LAMBAHAGUNG, KEC TAMBAKROMO, KAB PATI</t>
+  </si>
+  <si>
+    <t>static/uploads/S226.png</t>
+  </si>
+  <si>
+    <t>S227</t>
+  </si>
+  <si>
+    <t>3315132209680001</t>
+  </si>
+  <si>
+    <t>082325562131</t>
+  </si>
+  <si>
+    <t>RT 05/02 DESA DAYANG, KEC PURWODADI, KAB GROBOGAN</t>
+  </si>
+  <si>
+    <t>static/uploads/S227.png</t>
+  </si>
+  <si>
+    <t>S228</t>
+  </si>
+  <si>
+    <t>3318141801020001</t>
+  </si>
+  <si>
+    <t>BAGUS SATRIA</t>
+  </si>
+  <si>
+    <t>082335564757</t>
+  </si>
+  <si>
+    <t>RT 01/06 DESA TERBAN, KEC JEKULO, KAB KUDUS</t>
+  </si>
+  <si>
+    <t>static/uploads/S228.png</t>
+  </si>
+  <si>
+    <t>S229</t>
+  </si>
+  <si>
+    <t>3404093101740001</t>
+  </si>
+  <si>
+    <t>WIBOWO</t>
+  </si>
+  <si>
+    <t>081215517769</t>
+  </si>
+  <si>
+    <t>TEGALSARI RT 01/11 DESA KEMUDO, KEC PRAMBANAN, KAB KLATEN</t>
+  </si>
+  <si>
+    <t>static/uploads/S229.png</t>
+  </si>
+  <si>
+    <t>S230</t>
+  </si>
+  <si>
+    <t>3319062302940002</t>
+  </si>
+  <si>
+    <t>SYAIFUDDIN NAFIS</t>
+  </si>
+  <si>
+    <t>085728429240</t>
+  </si>
+  <si>
+    <t>PATIHAN RT 01/01 DESA TANJUNGREJO, KEC JEKULO, KAB KUDUS</t>
+  </si>
+  <si>
+    <t>static/uploads/S230.png</t>
+  </si>
+  <si>
+    <t>S231</t>
+  </si>
+  <si>
+    <t>3321061002790004</t>
+  </si>
+  <si>
+    <t>KARMITO</t>
+  </si>
+  <si>
+    <t>081326268491</t>
+  </si>
+  <si>
+    <t>RT 08/02 DESA KERANGKULON, KEC WONOSALAM, KAB DEMAK</t>
+  </si>
+  <si>
+    <t>static/uploads/S231.png</t>
+  </si>
+  <si>
+    <t>S232</t>
+  </si>
+  <si>
+    <t>3317142012680001</t>
+  </si>
+  <si>
+    <t>SUKONO</t>
+  </si>
+  <si>
+    <t>085647138732</t>
+  </si>
+  <si>
+    <t>RT 03/03 DESA GEDONGMULYO, KEC LASEM, KAB REMBANG</t>
+  </si>
+  <si>
+    <t>static/uploads/S232.png</t>
+  </si>
+  <si>
+    <t>S233</t>
+  </si>
+  <si>
+    <t>3319072005850005</t>
+  </si>
+  <si>
+    <t>ABDULLAH ZAENI</t>
+  </si>
+  <si>
+    <t>085742258028</t>
+  </si>
+  <si>
+    <t>RT 01/04 DESA BAE, KEC BAE, KUDUS</t>
+  </si>
+  <si>
+    <t>static/uploads/S233.png</t>
+  </si>
+  <si>
+    <t>S234</t>
+  </si>
+  <si>
+    <t>3320091002880001</t>
+  </si>
+  <si>
+    <t>EDI SUPRAPTO</t>
+  </si>
+  <si>
+    <t>081325380793</t>
+  </si>
+  <si>
+    <t>WONOHARJO RT 02/12 DESA KEMBANGARUM, KEC SEMARANG BARAT, KOTA SEMARANG</t>
+  </si>
+  <si>
+    <t>static/uploads/S234.png</t>
+  </si>
+  <si>
+    <t>S235</t>
+  </si>
+  <si>
+    <t>3317111905860005</t>
+  </si>
+  <si>
+    <t>ROCHMAD</t>
+  </si>
+  <si>
+    <t>088225398657</t>
+  </si>
+  <si>
+    <t>RT 01/02 DESA KEDUNG, KEC PANCUR, KAB REMBANG</t>
+  </si>
+  <si>
+    <t>static/uploads/S235.png</t>
+  </si>
+  <si>
+    <t>S236</t>
+  </si>
+  <si>
+    <t>1871032312770001</t>
+  </si>
+  <si>
+    <t>HARUN</t>
+  </si>
+  <si>
+    <t>082333818957</t>
+  </si>
+  <si>
+    <t>JL BADARUDIN 15 RT 03 DESA GUNUNGAGUNG, KEC LANGKAPURA, KOTA BANDAR</t>
+  </si>
+  <si>
+    <t>static/uploads/S236.png</t>
+  </si>
+  <si>
+    <t>S237</t>
+  </si>
+  <si>
+    <t>3315092701780002</t>
+  </si>
+  <si>
+    <t>0852017898111</t>
+  </si>
+  <si>
+    <t>NONGKO RT 06/09 DESA SUMBERAGUNG, KECNGARINGAN , KAB GROBOGAN</t>
+  </si>
+  <si>
+    <t>static/uploads/S237.png</t>
+  </si>
+  <si>
+    <t>S238</t>
+  </si>
+  <si>
+    <t>3319063012850004</t>
+  </si>
+  <si>
+    <t>AHMAD NURUL HUDA</t>
+  </si>
+  <si>
+    <t>088224274120</t>
+  </si>
+  <si>
+    <t>RT 02/06 DESA TERBAN, KEC JEKULO, KAB KUDUS</t>
+  </si>
+  <si>
+    <t>static/uploads/S238.png</t>
+  </si>
+  <si>
+    <t>S239</t>
+  </si>
+  <si>
+    <t>3319080301890002</t>
+  </si>
+  <si>
+    <t>MOH NUR LATIF</t>
+  </si>
+  <si>
+    <t>081319907238</t>
+  </si>
+  <si>
+    <t>RT 03/01 DESA JURANG, KEC GEBOG, KAB KUDUS</t>
+  </si>
+  <si>
+    <t>static/uploads/S239.png</t>
+  </si>
+  <si>
+    <t>S240</t>
+  </si>
+  <si>
+    <t>3325070511890001</t>
+  </si>
+  <si>
+    <t>SIGIT JOKO WALUYO</t>
+  </si>
+  <si>
+    <t>RT 02/01 DESA BULU, KEC BANYU PUTIH, KAB BATANG</t>
+  </si>
+  <si>
+    <t>static/uploads/S240.png</t>
+  </si>
+  <si>
+    <t>S241</t>
+  </si>
+  <si>
+    <t>3320122208910001</t>
+  </si>
+  <si>
+    <t>AHMAD ZUBAIDI</t>
+  </si>
+  <si>
+    <t>082134133311</t>
+  </si>
+  <si>
+    <t>BULU RT 01/03 DESA BATEGEDE, KEC NALUMSARI, KAB JEPARA</t>
+  </si>
+  <si>
+    <t>static/uploads/S241.png</t>
+  </si>
+  <si>
+    <t>S242</t>
+  </si>
+  <si>
+    <t>3319010605830003</t>
+  </si>
+  <si>
+    <t>ARIF ROHMAN</t>
+  </si>
+  <si>
+    <t>082225021016</t>
+  </si>
+  <si>
+    <t>RT 03/01 DESA ROBAYAN, KEC KALINYAMATAN, KAB JEPARA</t>
+  </si>
+  <si>
+    <t>static/uploads/S242.png</t>
+  </si>
+  <si>
+    <t>S243</t>
+  </si>
+  <si>
+    <t>3319080701590001</t>
+  </si>
+  <si>
+    <t>SUBANDI</t>
+  </si>
+  <si>
+    <t>085237836220</t>
+  </si>
+  <si>
+    <t>BERU RT 09/07 DESA GONDOSARI, KEC GEBOG, KAB KUDUS</t>
+  </si>
+  <si>
+    <t>static/uploads/S243.png</t>
+  </si>
+  <si>
+    <t>S244</t>
+  </si>
+  <si>
+    <t>3302121804790001</t>
+  </si>
+  <si>
+    <t>PRIYOGO</t>
+  </si>
+  <si>
+    <t>085327111101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RT 03/01 DESA NOTOG, KEC PATIKRAJA, KAB BANYUMAS </t>
+  </si>
+  <si>
+    <t>static/uploads/S244.png</t>
+  </si>
+  <si>
+    <t>S245</t>
+  </si>
+  <si>
+    <t>3321061411960002</t>
+  </si>
+  <si>
+    <t>PRAYUDHA SETYO ADI NUGROHO</t>
+  </si>
+  <si>
+    <t>087711787345</t>
+  </si>
+  <si>
+    <t>static/uploads/S245.png</t>
+  </si>
+  <si>
+    <t>S246</t>
+  </si>
+  <si>
+    <t>3318071902840002</t>
+  </si>
+  <si>
+    <t>SUGIYANTO</t>
+  </si>
+  <si>
+    <t>08990739408</t>
+  </si>
+  <si>
+    <t>RT 03/02 DESA KETITANG WETAN, KEC BATANGAN, KAB PATI</t>
+  </si>
+  <si>
+    <t>static/uploads/S246.png</t>
+  </si>
+  <si>
+    <t>S247</t>
+  </si>
+  <si>
+    <t>3318070107700307</t>
+  </si>
+  <si>
+    <t>JASMINTO</t>
+  </si>
+  <si>
+    <t>RT 04/02 DESA KETING WETAN, KEC BATANGAN, KAB PATI</t>
+  </si>
+  <si>
+    <t>static/uploads/S247.png</t>
+  </si>
+  <si>
+    <t>S248</t>
+  </si>
+  <si>
+    <t>3319060603780004</t>
+  </si>
+  <si>
+    <t>EDI PURWANTO</t>
+  </si>
+  <si>
+    <t>081326333891</t>
+  </si>
+  <si>
+    <t>KRING TENGAH RT 03/02 DESA SIDOMULYO, KEC JEKULO, KAB KUDUS</t>
+  </si>
+  <si>
+    <t>static/uploads/S248.png</t>
+  </si>
+  <si>
+    <t>S249</t>
+  </si>
+  <si>
+    <t>3319035608730003</t>
+  </si>
+  <si>
+    <t>SUTARMI</t>
+  </si>
+  <si>
+    <t>085602720938</t>
+  </si>
+  <si>
+    <t>KRAJAN RT 02/03 DESA LORAM WETAN, KEC JATI, KAB KUDUS</t>
+  </si>
+  <si>
+    <t>static/uploads/S249.png</t>
+  </si>
+  <si>
+    <t>S250</t>
+  </si>
+  <si>
+    <t>3316081306630003</t>
+  </si>
+  <si>
+    <t>ISMANTO</t>
+  </si>
+  <si>
+    <t>085229258827</t>
+  </si>
+  <si>
+    <t>RT 05/02 DESA JATIREJO, KEC JEPON, KAB BLORA</t>
+  </si>
+  <si>
+    <t>static/uploads/S250.png</t>
+  </si>
+  <si>
+    <t>S251</t>
+  </si>
+  <si>
+    <t>3321060707770004</t>
+  </si>
+  <si>
+    <t>FALAL ZAINI</t>
+  </si>
+  <si>
+    <t>082241183719</t>
+  </si>
+  <si>
+    <t>RT 05/04 DESA KALIANYAR, KEC WONOSALAM, KAB DEMAK</t>
+  </si>
+  <si>
+    <t>static/uploads/S251.png</t>
+  </si>
+  <si>
+    <t>S252</t>
+  </si>
+  <si>
+    <t>3319051805780001</t>
+  </si>
+  <si>
+    <t>SOF'AN</t>
+  </si>
+  <si>
+    <t>085226066701</t>
+  </si>
+  <si>
+    <t>RT 07/01 DESA TEMULUS, KEC MEJOBO, KAB KUDUS</t>
+  </si>
+  <si>
+    <t>static/uploads/S252.png</t>
+  </si>
+  <si>
+    <t>S253</t>
+  </si>
+  <si>
+    <t>3324072203950002</t>
+  </si>
+  <si>
+    <t>WAHYU DWIYANTO</t>
+  </si>
+  <si>
+    <t>082135244563</t>
+  </si>
+  <si>
+    <t>RT 01/04 DESA CAMPUREJO, KEC BOJA, KAB KENDAL</t>
+  </si>
+  <si>
+    <t>static/uploads/S253.png</t>
+  </si>
+  <si>
+    <t>S254</t>
+  </si>
+  <si>
+    <t>331903221890002</t>
+  </si>
+  <si>
+    <t>MOKHAMAD SOEB</t>
+  </si>
+  <si>
+    <t>0895321702738</t>
+  </si>
+  <si>
+    <t>KAWAAN RT 04/09 DESA GENDOWO, KEC DAWE, KAB KUDUS</t>
+  </si>
+  <si>
+    <t>static/uploads/S254.png</t>
+  </si>
+  <si>
+    <t>S255</t>
+  </si>
+  <si>
+    <t>3319061609840004</t>
+  </si>
+  <si>
+    <t>EKO RAHMADI</t>
+  </si>
+  <si>
+    <t>085226790039</t>
+  </si>
+  <si>
+    <t>PATIHAN RT 02/01 DESA TANJUNGREJO, KEC JEKULO, KAB KUDUS</t>
+  </si>
+  <si>
+    <t>static/uploads/S255.png</t>
+  </si>
+  <si>
+    <t>S256</t>
+  </si>
+  <si>
+    <t>3319060801820003</t>
+  </si>
+  <si>
+    <t>TIMUR</t>
+  </si>
+  <si>
+    <t>085876207856</t>
+  </si>
+  <si>
+    <t>static/uploads/S256.png</t>
+  </si>
+  <si>
+    <t>S257</t>
+  </si>
+  <si>
+    <t>3310113008860002</t>
+  </si>
+  <si>
+    <t>FANDI PRASETYO</t>
+  </si>
+  <si>
+    <t>082133203755</t>
+  </si>
+  <si>
+    <t>GENENGAN RT 03/01 DESA TAMBONGWETAN, KEC KALIKOTES, KAB KLATEN</t>
+  </si>
+  <si>
+    <t>static/uploads/S257.png</t>
+  </si>
+  <si>
+    <t>S258</t>
+  </si>
+  <si>
+    <t>3319031101940006</t>
+  </si>
+  <si>
+    <t>FARUQ HIDAYAT</t>
+  </si>
+  <si>
+    <t>08987946762</t>
+  </si>
+  <si>
+    <t>RT 02/01 DESA PASURUHAN LOR, KEC JATI, KAB KUDUS</t>
+  </si>
+  <si>
+    <t>static/uploads/S258.png</t>
+  </si>
+  <si>
+    <t>S259</t>
+  </si>
+  <si>
+    <t>3319020504000003</t>
+  </si>
+  <si>
+    <t>TITAN UTOMO PUTRA</t>
+  </si>
+  <si>
+    <t>085926871493</t>
+  </si>
+  <si>
+    <t>RT 01/07 DESA DEMAAN, KEC KOTA, KAB KUDUS</t>
+  </si>
+  <si>
+    <t>static/uploads/S259.png</t>
+  </si>
+  <si>
+    <t>S260</t>
+  </si>
+  <si>
+    <t>3316120302840004</t>
+  </si>
+  <si>
+    <t>MATRAIS</t>
+  </si>
+  <si>
+    <t>089513296972</t>
+  </si>
+  <si>
+    <t>RT 02/02 DESA TENGGER, KEC JAPAH, KAB BLORA</t>
+  </si>
+  <si>
+    <t>static/uploads/S260.png</t>
+  </si>
+  <si>
+    <t>S261</t>
+  </si>
+  <si>
+    <t>331711801890001</t>
+  </si>
+  <si>
+    <t>ALI ANTORO</t>
+  </si>
+  <si>
+    <t>085311377074</t>
+  </si>
+  <si>
+    <t>RT 02/01 DESA SAMBONGPAYAK, KEC GUNEM, KAB REMBANG</t>
+  </si>
+  <si>
+    <t>static/uploads/S261.png</t>
+  </si>
+  <si>
+    <t>S262</t>
+  </si>
+  <si>
+    <t>332008281086</t>
+  </si>
+  <si>
+    <t>RT 04/04 DESA TLOGOREJO, KEC WONOSALAM, KAB DEMAK</t>
+  </si>
+  <si>
+    <t>static/uploads/S262.png</t>
+  </si>
+  <si>
+    <t>S263</t>
+  </si>
+  <si>
+    <t>3321060606970001</t>
+  </si>
+  <si>
+    <t>MUHAMMAD AFIF FAHRONI</t>
+  </si>
+  <si>
+    <t>082326776220</t>
+  </si>
+  <si>
+    <t>RT 08/02 DESA KUWU, KEC DEMPET, KAB DEMAK</t>
+  </si>
+  <si>
+    <t>static/uploads/S263.png</t>
+  </si>
+  <si>
+    <t>S264</t>
+  </si>
+  <si>
+    <t>3374020103800005</t>
+  </si>
+  <si>
+    <t>YAYAK SUBAGIO</t>
+  </si>
+  <si>
+    <t>081390717622</t>
+  </si>
+  <si>
+    <t>JL SEDAYU KENANGA RT 01/05 DESA SEMBUNGHARJO, KEC GENUK, KOTA SEMARANG</t>
+  </si>
+  <si>
+    <t>static/uploads/S264.png</t>
+  </si>
+  <si>
+    <t>S265</t>
+  </si>
+  <si>
+    <t>3319011805980006</t>
+  </si>
+  <si>
+    <t>MUHAMMAD HAFIDH BACHTIAR</t>
+  </si>
+  <si>
+    <t>085701197550</t>
+  </si>
+  <si>
+    <t>RT 01/01 DESA KARANGAMPEL, KEC KALIWUNGU, KAB KUDUS</t>
+  </si>
+  <si>
+    <t>static/uploads/S265.png</t>
+  </si>
+  <si>
+    <t>S266</t>
+  </si>
+  <si>
+    <t>3319060202880001</t>
+  </si>
+  <si>
+    <t>KUSMANI</t>
+  </si>
+  <si>
+    <t>085974633225</t>
+  </si>
+  <si>
+    <t>KRAJAN RT 02/03 DESA PLADEN, KEC JEKULO, KAB KUKDUS</t>
+  </si>
+  <si>
+    <t>static/uploads/S266.png</t>
+  </si>
+  <si>
+    <t>S267</t>
+  </si>
+  <si>
+    <t>3310240508800002</t>
+  </si>
+  <si>
+    <t>EKO VIRGIYAN</t>
+  </si>
+  <si>
+    <t>085740040703</t>
+  </si>
+  <si>
+    <t>RT 02/05 DESA KAJEN, KEC CEPER, KAB KLATEN</t>
+  </si>
+  <si>
+    <t>static/uploads/S267.png</t>
+  </si>
+  <si>
+    <t>S268</t>
+  </si>
+  <si>
+    <t>3322022203950001</t>
+  </si>
+  <si>
+    <t>TONI ALI BAHRI</t>
+  </si>
+  <si>
+    <t>085643408207</t>
+  </si>
+  <si>
+    <t>RT 01/01 DESA TEGALREJO, KEC TENGARAN, KAB SEMARANG</t>
+  </si>
+  <si>
+    <t>static/uploads/S268.png</t>
+  </si>
+  <si>
+    <t>S269</t>
+  </si>
+  <si>
+    <t>3303031809790001</t>
+  </si>
+  <si>
+    <t>SLAMET BUDI PRIYANTO</t>
+  </si>
+  <si>
+    <t>085113411644</t>
+  </si>
+  <si>
+    <t>RT 13/05 DESA KRENCENG, KEC KEJOBONG, KAB PURBALINGGA</t>
+  </si>
+  <si>
+    <t>static/uploads/S269.png</t>
+  </si>
+  <si>
+    <t>S270</t>
+  </si>
+  <si>
+    <t>3321081405030001</t>
+  </si>
+  <si>
+    <t>M IKHSAN MAULUDDIN SYOFI</t>
+  </si>
+  <si>
+    <t>0882008833851</t>
+  </si>
+  <si>
+    <t>RT 01/01 DESA MLENGKANG, KEC GAJAH, KAB DEMAK</t>
+  </si>
+  <si>
+    <t>static/uploads/S270.png</t>
+  </si>
+  <si>
+    <t>S271</t>
+  </si>
+  <si>
+    <t>3319080304730003</t>
+  </si>
+  <si>
+    <t>MASKURI</t>
+  </si>
+  <si>
+    <t>081219873226</t>
+  </si>
+  <si>
+    <t>NGEMPLAK RT 03/09 DESA GONDOSARI, KEC GEBOG, KAB KUDUS</t>
+  </si>
+  <si>
+    <t>static/uploads/S271.png</t>
+  </si>
+  <si>
+    <t>S272</t>
+  </si>
+  <si>
+    <t>3320041307750003</t>
+  </si>
+  <si>
+    <t>RUMATIN</t>
+  </si>
+  <si>
+    <t>085259201668</t>
+  </si>
+  <si>
+    <t>RT 02/01 DESA MAYONG KIDUL, KEC MAYONG, KAB JEPARA</t>
+  </si>
+  <si>
+    <t>static/uploads/S272.png</t>
+  </si>
+  <si>
+    <t>S273</t>
+  </si>
+  <si>
+    <t>3319061605890003</t>
+  </si>
+  <si>
+    <t>MOH ARIFIN</t>
+  </si>
+  <si>
+    <t>0882005023049</t>
+  </si>
+  <si>
+    <t>KANCILAN RT 04/04 DESA TERBAN, KEC JEKULO, KAB KUDUS</t>
+  </si>
+  <si>
+    <t>static/uploads/S273.png</t>
+  </si>
+  <si>
+    <t>S274</t>
+  </si>
+  <si>
+    <t>3319072610020001</t>
+  </si>
+  <si>
+    <t>AGUNG WAHYUDI</t>
+  </si>
+  <si>
+    <t>087837167991</t>
+  </si>
+  <si>
+    <t>RT 03/02 DESA BACIN, KEC BAE, KAB KUDUS</t>
+  </si>
+  <si>
+    <t>static/uploads/S274.png</t>
+  </si>
+  <si>
+    <t>S275</t>
+  </si>
+  <si>
+    <t>3318012605920003</t>
+  </si>
+  <si>
+    <t>MUHAMMAD SAEFUL ARIF</t>
+  </si>
+  <si>
+    <t>082145284525</t>
+  </si>
+  <si>
+    <t>DORIO RT 01/01 DESA TOMPEGUNUNG, KEC SUKOLILO, KAB PATI</t>
+  </si>
+  <si>
+    <t>static/uploads/S275.png</t>
+  </si>
+  <si>
+    <t>S276</t>
+  </si>
+  <si>
+    <t>3317100202820001</t>
+  </si>
+  <si>
+    <t>MUKHAMAD ASRIP</t>
+  </si>
+  <si>
+    <t>089519858716</t>
+  </si>
+  <si>
+    <t>RT 06/08 DESA SUBEREJO, KEC REMBANG, KAB REMBANG</t>
+  </si>
+  <si>
+    <t>static/uploads/S276.png</t>
+  </si>
+  <si>
+    <t>S277</t>
+  </si>
+  <si>
+    <t>3319032812990004</t>
+  </si>
+  <si>
+    <t>RISWAN AJI MAHENDRA</t>
+  </si>
+  <si>
+    <t>088806239230</t>
+  </si>
+  <si>
+    <t>GALIRAN RT 02/08 DESA BALEADI, KEC SUKOLILO, KAB PATI</t>
+  </si>
+  <si>
+    <t>static/uploads/S277.png</t>
+  </si>
+  <si>
+    <t>S278</t>
+  </si>
+  <si>
+    <t>3318020810890005</t>
+  </si>
+  <si>
+    <t>SYAEFUL ROHIM</t>
+  </si>
+  <si>
+    <t>085222212270</t>
+  </si>
+  <si>
+    <t>RT 01/02 DESA SUMBERSARI, KEC KAYEN, KAB PATI</t>
+  </si>
+  <si>
+    <t>static/uploads/S278.png</t>
+  </si>
+  <si>
+    <t>S279</t>
+  </si>
+  <si>
+    <t>3321092701890001</t>
+  </si>
+  <si>
+    <t>AFI SAFTIAN JUNAERI</t>
+  </si>
+  <si>
+    <t>082328059316</t>
+  </si>
+  <si>
+    <t>RT 03/10 DESA GONDANGMANIS, KEC BAE, KAB KUDUS</t>
+  </si>
+  <si>
+    <t>static/uploads/S279.png</t>
+  </si>
+  <si>
+    <t>S280</t>
+  </si>
+  <si>
+    <t>3318122106860003</t>
+  </si>
+  <si>
+    <t>AHMAD IMRON</t>
+  </si>
+  <si>
+    <t>081809499795</t>
+  </si>
+  <si>
+    <t>RT 03/08 DESA TERBAN, KEC JEKULO, KAB KUDUS</t>
+  </si>
+  <si>
+    <t>static/uploads/S280.png</t>
   </si>
 </sst>
 </file>
@@ -2909,10 +5162,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I85"/>
+  <dimension ref="A1:I262"/>
   <sheetViews>
-    <sheetView tabSelected="true" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="C86" sqref="C86"/>
+    <sheetView tabSelected="true" topLeftCell="A247" workbookViewId="0">
+      <selection activeCell="F257" sqref="F257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5309,7 +7562,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:9">
       <c r="A86" t="s">
         <v>446</v>
       </c>
@@ -5338,7 +7591,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:9">
       <c r="A87" t="s">
         <v>452</v>
       </c>
@@ -5367,7 +7620,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:9">
       <c r="A88" t="s">
         <v>458</v>
       </c>
@@ -5396,7 +7649,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:9">
       <c r="A89" t="s">
         <v>464</v>
       </c>
@@ -5425,7 +7678,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:9">
       <c r="A90" t="s">
         <v>464</v>
       </c>
@@ -5454,7 +7707,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:9">
       <c r="A91" t="s">
         <v>452</v>
       </c>
@@ -5483,7 +7736,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:9">
       <c r="A92" t="s">
         <v>458</v>
       </c>
@@ -5512,7 +7765,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:9">
       <c r="A93" t="s">
         <v>482</v>
       </c>
@@ -5541,7 +7794,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:9">
       <c r="A94" t="s">
         <v>488</v>
       </c>
@@ -5570,7 +7823,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:9">
       <c r="A95" t="s">
         <v>494</v>
       </c>
@@ -5599,7 +7852,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:9">
       <c r="A96" t="s">
         <v>500</v>
       </c>
@@ -5628,7 +7881,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:9">
       <c r="A97" t="s">
         <v>503</v>
       </c>
@@ -5657,7 +7910,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:9">
       <c r="A98" t="s">
         <v>500</v>
       </c>
@@ -5686,7 +7939,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:9">
       <c r="A99" t="s">
         <v>513</v>
       </c>
@@ -5715,7 +7968,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:9">
       <c r="A100" t="s">
         <v>519</v>
       </c>
@@ -5744,7 +7997,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:9">
       <c r="A101" t="s">
         <v>525</v>
       </c>
@@ -5773,7 +8026,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:9">
       <c r="A102" t="s">
         <v>531</v>
       </c>
@@ -5802,7 +8055,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:9">
       <c r="A103" t="s">
         <v>537</v>
       </c>
@@ -5831,7 +8084,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:9">
       <c r="A104" t="s">
         <v>543</v>
       </c>
@@ -5860,7 +8113,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:9">
       <c r="A105" t="s">
         <v>549</v>
       </c>
@@ -5889,7 +8142,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:9">
       <c r="A106" t="s">
         <v>555</v>
       </c>
@@ -5918,7 +8171,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:9">
       <c r="A107" t="s">
         <v>561</v>
       </c>
@@ -5947,7 +8200,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:9">
       <c r="A108" t="s">
         <v>566</v>
       </c>
@@ -5976,7 +8229,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:9">
       <c r="A109" t="s">
         <v>572</v>
       </c>
@@ -6005,7 +8258,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:9">
       <c r="A110" t="s">
         <v>578</v>
       </c>
@@ -6034,7 +8287,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:9">
       <c r="A111" t="s">
         <v>581</v>
       </c>
@@ -6063,7 +8316,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:9">
       <c r="A112" t="s">
         <v>587</v>
       </c>
@@ -6092,7 +8345,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:9">
       <c r="A113" t="s">
         <v>593</v>
       </c>
@@ -6121,7 +8374,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:9">
       <c r="A114" t="s">
         <v>599</v>
       </c>
@@ -6150,7 +8403,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:9">
       <c r="A115" t="s">
         <v>605</v>
       </c>
@@ -6179,7 +8432,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:9">
       <c r="A116" t="s">
         <v>611</v>
       </c>
@@ -6208,7 +8461,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:9">
       <c r="A117" t="s">
         <v>617</v>
       </c>
@@ -6237,7 +8490,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:9">
       <c r="A118" t="s">
         <v>623</v>
       </c>
@@ -6266,7 +8519,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:9">
       <c r="A119" t="s">
         <v>629</v>
       </c>
@@ -6295,7 +8548,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:9">
       <c r="A120" t="s">
         <v>635</v>
       </c>
@@ -6324,7 +8577,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:9">
       <c r="A121" t="s">
         <v>641</v>
       </c>
@@ -6353,7 +8606,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:9">
       <c r="A122" t="s">
         <v>646</v>
       </c>
@@ -6382,7 +8635,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:9">
       <c r="A123" t="s">
         <v>652</v>
       </c>
@@ -6411,7 +8664,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:9">
       <c r="A124" t="s">
         <v>657</v>
       </c>
@@ -6440,7 +8693,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:9">
       <c r="A125" t="s">
         <v>663</v>
       </c>
@@ -6469,7 +8722,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:9">
       <c r="A126" t="s">
         <v>669</v>
       </c>
@@ -6498,7 +8751,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:9">
       <c r="A127" t="s">
         <v>675</v>
       </c>
@@ -6527,7 +8780,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:9">
       <c r="A128" t="s">
         <v>681</v>
       </c>
@@ -6556,7 +8809,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:9">
       <c r="A129" t="s">
         <v>687</v>
       </c>
@@ -6585,7 +8838,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:9">
       <c r="A130" t="s">
         <v>693</v>
       </c>
@@ -6614,7 +8867,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:9">
       <c r="A131" t="s">
         <v>699</v>
       </c>
@@ -6643,7 +8896,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:9">
       <c r="A132" t="s">
         <v>704</v>
       </c>
@@ -6672,7 +8925,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:9">
       <c r="A133" t="s">
         <v>710</v>
       </c>
@@ -6701,7 +8954,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:9">
       <c r="A134" t="s">
         <v>715</v>
       </c>
@@ -6730,7 +8983,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:9">
       <c r="A135" t="s">
         <v>720</v>
       </c>
@@ -6759,7 +9012,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:9">
       <c r="A136" t="s">
         <v>726</v>
       </c>
@@ -6788,7 +9041,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:9">
       <c r="A137" t="s">
         <v>732</v>
       </c>
@@ -6817,7 +9070,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:9">
       <c r="A138" t="s">
         <v>738</v>
       </c>
@@ -6846,7 +9099,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:9">
       <c r="A139" t="s">
         <v>744</v>
       </c>
@@ -6875,7 +9128,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:9">
       <c r="A140" t="s">
         <v>750</v>
       </c>
@@ -6904,7 +9157,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:9">
       <c r="A141" t="s">
         <v>756</v>
       </c>
@@ -6933,7 +9186,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:9">
       <c r="A142" t="s">
         <v>762</v>
       </c>
@@ -6962,7 +9215,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:9">
       <c r="A143" t="s">
         <v>768</v>
       </c>
@@ -6991,7 +9244,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:9">
       <c r="A144" t="s">
         <v>774</v>
       </c>
@@ -7020,7 +9273,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:9">
       <c r="A145" t="s">
         <v>779</v>
       </c>
@@ -7049,7 +9302,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:9">
       <c r="A146" t="s">
         <v>785</v>
       </c>
@@ -7078,7 +9331,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:9">
       <c r="A147" t="s">
         <v>791</v>
       </c>
@@ -7107,7 +9360,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:9">
       <c r="A148" t="s">
         <v>796</v>
       </c>
@@ -7136,7 +9389,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:9">
       <c r="A149" t="s">
         <v>801</v>
       </c>
@@ -7165,7 +9418,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:9">
       <c r="A150" t="s">
         <v>806</v>
       </c>
@@ -7194,7 +9447,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:9">
       <c r="A151" t="s">
         <v>812</v>
       </c>
@@ -7223,7 +9476,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:9">
       <c r="A152" t="s">
         <v>817</v>
       </c>
@@ -7252,7 +9505,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:9">
       <c r="A153" t="s">
         <v>823</v>
       </c>
@@ -7281,7 +9534,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:9">
       <c r="A154" t="s">
         <v>829</v>
       </c>
@@ -7310,7 +9563,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:9">
       <c r="A155" t="s">
         <v>835</v>
       </c>
@@ -7337,6 +9590,3747 @@
       </c>
       <c r="I155" t="s">
         <v>840</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
+      <c r="A156" t="s">
+        <v>841</v>
+      </c>
+      <c r="B156" t="s">
+        <v>1</v>
+      </c>
+      <c r="C156" s="9" t="s">
+        <v>842</v>
+      </c>
+      <c r="D156" t="s">
+        <v>63</v>
+      </c>
+      <c r="E156" t="s">
+        <v>843</v>
+      </c>
+      <c r="F156" t="s">
+        <v>844</v>
+      </c>
+      <c r="G156">
+        <v>0</v>
+      </c>
+      <c r="H156" t="s">
+        <v>2</v>
+      </c>
+      <c r="I156" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
+      <c r="A157" t="s">
+        <v>846</v>
+      </c>
+      <c r="B157" t="s">
+        <v>1</v>
+      </c>
+      <c r="C157" s="9" t="s">
+        <v>847</v>
+      </c>
+      <c r="D157" t="s">
+        <v>848</v>
+      </c>
+      <c r="E157" t="s">
+        <v>849</v>
+      </c>
+      <c r="F157" t="s">
+        <v>850</v>
+      </c>
+      <c r="G157">
+        <v>0</v>
+      </c>
+      <c r="H157" t="s">
+        <v>2</v>
+      </c>
+      <c r="I157" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
+      <c r="A158" t="s">
+        <v>852</v>
+      </c>
+      <c r="B158" t="s">
+        <v>1</v>
+      </c>
+      <c r="C158" s="9" t="s">
+        <v>853</v>
+      </c>
+      <c r="D158" t="s">
+        <v>854</v>
+      </c>
+      <c r="E158" t="s">
+        <v>855</v>
+      </c>
+      <c r="F158" t="s">
+        <v>856</v>
+      </c>
+      <c r="G158">
+        <v>0</v>
+      </c>
+      <c r="H158" t="s">
+        <v>2</v>
+      </c>
+      <c r="I158" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
+      <c r="A159" t="s">
+        <v>858</v>
+      </c>
+      <c r="B159" t="s">
+        <v>1</v>
+      </c>
+      <c r="C159" s="9" t="s">
+        <v>859</v>
+      </c>
+      <c r="D159" t="s">
+        <v>860</v>
+      </c>
+      <c r="E159" t="s">
+        <v>861</v>
+      </c>
+      <c r="F159" t="s">
+        <v>862</v>
+      </c>
+      <c r="G159">
+        <v>0</v>
+      </c>
+      <c r="H159" t="s">
+        <v>2</v>
+      </c>
+      <c r="I159" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
+      <c r="A160" t="s">
+        <v>864</v>
+      </c>
+      <c r="B160" t="s">
+        <v>1</v>
+      </c>
+      <c r="C160" s="9" t="s">
+        <v>865</v>
+      </c>
+      <c r="D160" t="s">
+        <v>866</v>
+      </c>
+      <c r="E160" t="s">
+        <v>867</v>
+      </c>
+      <c r="F160" t="s">
+        <v>868</v>
+      </c>
+      <c r="G160">
+        <v>0</v>
+      </c>
+      <c r="H160" t="s">
+        <v>2</v>
+      </c>
+      <c r="I160" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
+      <c r="A161" t="s">
+        <v>870</v>
+      </c>
+      <c r="B161" t="s">
+        <v>1</v>
+      </c>
+      <c r="C161" s="9" t="s">
+        <v>871</v>
+      </c>
+      <c r="D161" t="s">
+        <v>872</v>
+      </c>
+      <c r="E161" t="s">
+        <v>873</v>
+      </c>
+      <c r="F161" t="s">
+        <v>874</v>
+      </c>
+      <c r="G161">
+        <v>0</v>
+      </c>
+      <c r="H161" t="s">
+        <v>2</v>
+      </c>
+      <c r="I161" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
+      <c r="A162" t="s">
+        <v>876</v>
+      </c>
+      <c r="B162" t="s">
+        <v>1</v>
+      </c>
+      <c r="C162" s="9" t="s">
+        <v>877</v>
+      </c>
+      <c r="D162" t="s">
+        <v>878</v>
+      </c>
+      <c r="E162" t="s">
+        <v>879</v>
+      </c>
+      <c r="F162" t="s">
+        <v>880</v>
+      </c>
+      <c r="G162">
+        <v>0</v>
+      </c>
+      <c r="H162" t="s">
+        <v>2</v>
+      </c>
+      <c r="I162" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
+      <c r="A163" t="s">
+        <v>882</v>
+      </c>
+      <c r="B163" t="s">
+        <v>1</v>
+      </c>
+      <c r="C163" s="9" t="s">
+        <v>883</v>
+      </c>
+      <c r="D163" t="s">
+        <v>884</v>
+      </c>
+      <c r="E163" t="s">
+        <v>885</v>
+      </c>
+      <c r="F163" t="s">
+        <v>886</v>
+      </c>
+      <c r="G163">
+        <v>0</v>
+      </c>
+      <c r="H163" t="s">
+        <v>2</v>
+      </c>
+      <c r="I163" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
+      <c r="A164" t="s">
+        <v>888</v>
+      </c>
+      <c r="B164" t="s">
+        <v>1</v>
+      </c>
+      <c r="C164" s="9" t="s">
+        <v>889</v>
+      </c>
+      <c r="D164" t="s">
+        <v>890</v>
+      </c>
+      <c r="E164" t="s">
+        <v>891</v>
+      </c>
+      <c r="F164" t="s">
+        <v>892</v>
+      </c>
+      <c r="G164">
+        <v>0</v>
+      </c>
+      <c r="H164" t="s">
+        <v>2</v>
+      </c>
+      <c r="I164" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
+      <c r="A165" t="s">
+        <v>894</v>
+      </c>
+      <c r="B165" t="s">
+        <v>1</v>
+      </c>
+      <c r="C165" s="9" t="s">
+        <v>895</v>
+      </c>
+      <c r="D165" t="s">
+        <v>896</v>
+      </c>
+      <c r="E165" t="s">
+        <v>897</v>
+      </c>
+      <c r="F165" t="s">
+        <v>898</v>
+      </c>
+      <c r="G165">
+        <v>0</v>
+      </c>
+      <c r="H165" t="s">
+        <v>2</v>
+      </c>
+      <c r="I165" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
+      <c r="A166" t="s">
+        <v>900</v>
+      </c>
+      <c r="B166" t="s">
+        <v>1</v>
+      </c>
+      <c r="C166" s="9" t="s">
+        <v>901</v>
+      </c>
+      <c r="D166" t="s">
+        <v>902</v>
+      </c>
+      <c r="E166" t="s">
+        <v>903</v>
+      </c>
+      <c r="F166" t="s">
+        <v>904</v>
+      </c>
+      <c r="G166">
+        <v>0</v>
+      </c>
+      <c r="H166" t="s">
+        <v>2</v>
+      </c>
+      <c r="I166" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
+      <c r="A167" t="s">
+        <v>906</v>
+      </c>
+      <c r="B167" t="s">
+        <v>1</v>
+      </c>
+      <c r="C167" s="9" t="s">
+        <v>907</v>
+      </c>
+      <c r="D167" t="s">
+        <v>908</v>
+      </c>
+      <c r="E167" t="s">
+        <v>909</v>
+      </c>
+      <c r="F167" t="s">
+        <v>910</v>
+      </c>
+      <c r="G167">
+        <v>0</v>
+      </c>
+      <c r="H167" t="s">
+        <v>2</v>
+      </c>
+      <c r="I167" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
+      <c r="A168" t="s">
+        <v>912</v>
+      </c>
+      <c r="B168" t="s">
+        <v>1</v>
+      </c>
+      <c r="C168" s="9" t="s">
+        <v>913</v>
+      </c>
+      <c r="D168" t="s">
+        <v>914</v>
+      </c>
+      <c r="E168" t="s">
+        <v>915</v>
+      </c>
+      <c r="F168" t="s">
+        <v>916</v>
+      </c>
+      <c r="G168">
+        <v>0</v>
+      </c>
+      <c r="H168" t="s">
+        <v>2</v>
+      </c>
+      <c r="I168" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
+      <c r="A169" t="s">
+        <v>918</v>
+      </c>
+      <c r="B169" t="s">
+        <v>1</v>
+      </c>
+      <c r="C169" s="9" t="s">
+        <v>919</v>
+      </c>
+      <c r="D169" t="s">
+        <v>920</v>
+      </c>
+      <c r="E169" t="s">
+        <v>921</v>
+      </c>
+      <c r="F169" t="s">
+        <v>922</v>
+      </c>
+      <c r="G169">
+        <v>0</v>
+      </c>
+      <c r="H169" t="s">
+        <v>2</v>
+      </c>
+      <c r="I169" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
+      <c r="A170" t="s">
+        <v>924</v>
+      </c>
+      <c r="B170" t="s">
+        <v>1</v>
+      </c>
+      <c r="C170" s="9" t="s">
+        <v>925</v>
+      </c>
+      <c r="D170" t="s">
+        <v>926</v>
+      </c>
+      <c r="E170" t="s">
+        <v>927</v>
+      </c>
+      <c r="F170" t="s">
+        <v>928</v>
+      </c>
+      <c r="G170">
+        <v>0</v>
+      </c>
+      <c r="H170" t="s">
+        <v>2</v>
+      </c>
+      <c r="I170" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
+      <c r="A171" t="s">
+        <v>930</v>
+      </c>
+      <c r="B171" t="s">
+        <v>1</v>
+      </c>
+      <c r="C171" s="9" t="s">
+        <v>931</v>
+      </c>
+      <c r="D171" t="s">
+        <v>932</v>
+      </c>
+      <c r="E171" t="s">
+        <v>933</v>
+      </c>
+      <c r="F171" t="s">
+        <v>934</v>
+      </c>
+      <c r="G171">
+        <v>0</v>
+      </c>
+      <c r="H171" t="s">
+        <v>2</v>
+      </c>
+      <c r="I171" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
+      <c r="A172" t="s">
+        <v>936</v>
+      </c>
+      <c r="B172" t="s">
+        <v>1</v>
+      </c>
+      <c r="C172" s="9" t="s">
+        <v>937</v>
+      </c>
+      <c r="D172" t="s">
+        <v>938</v>
+      </c>
+      <c r="E172" t="s">
+        <v>939</v>
+      </c>
+      <c r="F172" t="s">
+        <v>940</v>
+      </c>
+      <c r="G172">
+        <v>0</v>
+      </c>
+      <c r="H172" t="s">
+        <v>2</v>
+      </c>
+      <c r="I172" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
+      <c r="A173" t="s">
+        <v>942</v>
+      </c>
+      <c r="B173" t="s">
+        <v>1</v>
+      </c>
+      <c r="C173" s="9" t="s">
+        <v>943</v>
+      </c>
+      <c r="D173" t="s">
+        <v>944</v>
+      </c>
+      <c r="E173" t="s">
+        <v>945</v>
+      </c>
+      <c r="F173" t="s">
+        <v>946</v>
+      </c>
+      <c r="G173">
+        <v>0</v>
+      </c>
+      <c r="H173" t="s">
+        <v>2</v>
+      </c>
+      <c r="I173" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
+      <c r="A174" t="s">
+        <v>948</v>
+      </c>
+      <c r="B174" t="s">
+        <v>1</v>
+      </c>
+      <c r="C174" s="9" t="s">
+        <v>949</v>
+      </c>
+      <c r="D174" t="s">
+        <v>950</v>
+      </c>
+      <c r="E174" t="s">
+        <v>951</v>
+      </c>
+      <c r="F174" t="s">
+        <v>708</v>
+      </c>
+      <c r="G174">
+        <v>0</v>
+      </c>
+      <c r="H174" t="s">
+        <v>2</v>
+      </c>
+      <c r="I174" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
+      <c r="A175" t="s">
+        <v>953</v>
+      </c>
+      <c r="B175" t="s">
+        <v>1</v>
+      </c>
+      <c r="C175" s="9" t="s">
+        <v>954</v>
+      </c>
+      <c r="D175" t="s">
+        <v>955</v>
+      </c>
+      <c r="E175" t="s">
+        <v>956</v>
+      </c>
+      <c r="F175" t="s">
+        <v>957</v>
+      </c>
+      <c r="G175">
+        <v>0</v>
+      </c>
+      <c r="H175" t="s">
+        <v>2</v>
+      </c>
+      <c r="I175" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
+      <c r="A176" t="s">
+        <v>959</v>
+      </c>
+      <c r="B176" t="s">
+        <v>1</v>
+      </c>
+      <c r="C176" s="9" t="s">
+        <v>960</v>
+      </c>
+      <c r="D176" t="s">
+        <v>961</v>
+      </c>
+      <c r="E176" t="s">
+        <v>962</v>
+      </c>
+      <c r="F176" t="s">
+        <v>963</v>
+      </c>
+      <c r="G176">
+        <v>0</v>
+      </c>
+      <c r="H176" t="s">
+        <v>2</v>
+      </c>
+      <c r="I176" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
+      <c r="A177" t="s">
+        <v>965</v>
+      </c>
+      <c r="B177" t="s">
+        <v>1</v>
+      </c>
+      <c r="C177" s="9" t="s">
+        <v>966</v>
+      </c>
+      <c r="D177" t="s">
+        <v>967</v>
+      </c>
+      <c r="E177" t="s">
+        <v>968</v>
+      </c>
+      <c r="F177" t="s">
+        <v>969</v>
+      </c>
+      <c r="G177">
+        <v>0</v>
+      </c>
+      <c r="H177" t="s">
+        <v>2</v>
+      </c>
+      <c r="I177" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
+      <c r="A178" t="s">
+        <v>971</v>
+      </c>
+      <c r="B178" t="s">
+        <v>1</v>
+      </c>
+      <c r="C178" s="9" t="s">
+        <v>972</v>
+      </c>
+      <c r="D178" t="s">
+        <v>973</v>
+      </c>
+      <c r="E178" t="s">
+        <v>974</v>
+      </c>
+      <c r="F178" t="s">
+        <v>975</v>
+      </c>
+      <c r="G178">
+        <v>0</v>
+      </c>
+      <c r="H178" t="s">
+        <v>2</v>
+      </c>
+      <c r="I178" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
+      <c r="A179" t="s">
+        <v>977</v>
+      </c>
+      <c r="B179" t="s">
+        <v>1</v>
+      </c>
+      <c r="C179" s="9" t="s">
+        <v>978</v>
+      </c>
+      <c r="D179" t="s">
+        <v>979</v>
+      </c>
+      <c r="E179" t="s">
+        <v>980</v>
+      </c>
+      <c r="F179" t="s">
+        <v>981</v>
+      </c>
+      <c r="G179">
+        <v>0</v>
+      </c>
+      <c r="H179" t="s">
+        <v>2</v>
+      </c>
+      <c r="I179" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
+      <c r="A180" t="s">
+        <v>983</v>
+      </c>
+      <c r="B180" t="s">
+        <v>1</v>
+      </c>
+      <c r="C180" s="9" t="s">
+        <v>984</v>
+      </c>
+      <c r="D180" t="s">
+        <v>985</v>
+      </c>
+      <c r="E180" t="s">
+        <v>986</v>
+      </c>
+      <c r="F180" t="s">
+        <v>987</v>
+      </c>
+      <c r="G180">
+        <v>0</v>
+      </c>
+      <c r="H180" t="s">
+        <v>2</v>
+      </c>
+      <c r="I180" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
+      <c r="A181" t="s">
+        <v>989</v>
+      </c>
+      <c r="B181" t="s">
+        <v>1</v>
+      </c>
+      <c r="C181" s="9" t="s">
+        <v>990</v>
+      </c>
+      <c r="D181" t="s">
+        <v>991</v>
+      </c>
+      <c r="E181" t="s">
+        <v>992</v>
+      </c>
+      <c r="F181" t="s">
+        <v>993</v>
+      </c>
+      <c r="G181">
+        <v>0</v>
+      </c>
+      <c r="H181" t="s">
+        <v>2</v>
+      </c>
+      <c r="I181" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
+      <c r="A182" t="s">
+        <v>995</v>
+      </c>
+      <c r="B182" t="s">
+        <v>1</v>
+      </c>
+      <c r="C182" s="9" t="s">
+        <v>996</v>
+      </c>
+      <c r="D182" t="s">
+        <v>932</v>
+      </c>
+      <c r="E182" t="s">
+        <v>997</v>
+      </c>
+      <c r="F182" t="s">
+        <v>998</v>
+      </c>
+      <c r="G182">
+        <v>0</v>
+      </c>
+      <c r="H182" t="s">
+        <v>2</v>
+      </c>
+      <c r="I182" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
+      <c r="A183" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B183" t="s">
+        <v>1</v>
+      </c>
+      <c r="C183" s="9" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D183" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E183" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F183" t="s">
+        <v>1004</v>
+      </c>
+      <c r="G183">
+        <v>0</v>
+      </c>
+      <c r="H183" t="s">
+        <v>2</v>
+      </c>
+      <c r="I183" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
+      <c r="A184" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B184" t="s">
+        <v>1</v>
+      </c>
+      <c r="C184" s="9" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D184" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E184" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F184" t="s">
+        <v>1010</v>
+      </c>
+      <c r="G184">
+        <v>0</v>
+      </c>
+      <c r="H184" t="s">
+        <v>2</v>
+      </c>
+      <c r="I184" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
+      <c r="A185" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B185" t="s">
+        <v>1</v>
+      </c>
+      <c r="C185" s="9" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D185" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E185" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F185" t="s">
+        <v>1016</v>
+      </c>
+      <c r="G185">
+        <v>0</v>
+      </c>
+      <c r="H185" t="s">
+        <v>2</v>
+      </c>
+      <c r="I185" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
+      <c r="A186" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B186" t="s">
+        <v>1</v>
+      </c>
+      <c r="C186" s="9" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D186" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E186" t="s">
+        <v>1021</v>
+      </c>
+      <c r="F186" t="s">
+        <v>1022</v>
+      </c>
+      <c r="G186">
+        <v>0</v>
+      </c>
+      <c r="H186" t="s">
+        <v>2</v>
+      </c>
+      <c r="I186" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
+      <c r="A187" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B187" t="s">
+        <v>1</v>
+      </c>
+      <c r="C187" s="9" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D187" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E187" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F187" t="s">
+        <v>1028</v>
+      </c>
+      <c r="G187">
+        <v>0</v>
+      </c>
+      <c r="H187" t="s">
+        <v>2</v>
+      </c>
+      <c r="I187" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
+      <c r="A188" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B188" t="s">
+        <v>1</v>
+      </c>
+      <c r="C188" s="9" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D188" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E188" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F188" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G188">
+        <v>0</v>
+      </c>
+      <c r="H188" t="s">
+        <v>2</v>
+      </c>
+      <c r="I188" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
+      <c r="A189" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B189" t="s">
+        <v>1</v>
+      </c>
+      <c r="C189" s="9" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D189" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E189" t="s">
+        <v>1039</v>
+      </c>
+      <c r="F189" t="s">
+        <v>1040</v>
+      </c>
+      <c r="G189">
+        <v>0</v>
+      </c>
+      <c r="H189" t="s">
+        <v>2</v>
+      </c>
+      <c r="I189" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
+      <c r="A190" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B190" t="s">
+        <v>1</v>
+      </c>
+      <c r="C190" s="9" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D190" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E190" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F190" t="s">
+        <v>1046</v>
+      </c>
+      <c r="G190">
+        <v>0</v>
+      </c>
+      <c r="H190" t="s">
+        <v>2</v>
+      </c>
+      <c r="I190" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
+      <c r="A191" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B191" t="s">
+        <v>1</v>
+      </c>
+      <c r="C191" s="9" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D191" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E191" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F191" t="s">
+        <v>1052</v>
+      </c>
+      <c r="G191">
+        <v>0</v>
+      </c>
+      <c r="H191" t="s">
+        <v>2</v>
+      </c>
+      <c r="I191" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
+      <c r="A192" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B192" t="s">
+        <v>1</v>
+      </c>
+      <c r="C192" s="9" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D192" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E192" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F192" t="s">
+        <v>766</v>
+      </c>
+      <c r="G192">
+        <v>0</v>
+      </c>
+      <c r="H192" t="s">
+        <v>2</v>
+      </c>
+      <c r="I192" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
+      <c r="A193" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B193" t="s">
+        <v>1</v>
+      </c>
+      <c r="C193" s="9" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D193" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E193" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F193" t="s">
+        <v>1063</v>
+      </c>
+      <c r="G193">
+        <v>0</v>
+      </c>
+      <c r="H193" t="s">
+        <v>2</v>
+      </c>
+      <c r="I193" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
+      <c r="A194" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B194" t="s">
+        <v>1</v>
+      </c>
+      <c r="C194" s="9" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D194" t="s">
+        <v>83</v>
+      </c>
+      <c r="E194" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F194" t="s">
+        <v>1068</v>
+      </c>
+      <c r="G194">
+        <v>0</v>
+      </c>
+      <c r="H194" t="s">
+        <v>2</v>
+      </c>
+      <c r="I194" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
+      <c r="A195" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B195" t="s">
+        <v>1</v>
+      </c>
+      <c r="C195" s="9" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D195" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E195" t="s">
+        <v>175</v>
+      </c>
+      <c r="F195" t="s">
+        <v>1073</v>
+      </c>
+      <c r="G195">
+        <v>0</v>
+      </c>
+      <c r="H195" t="s">
+        <v>2</v>
+      </c>
+      <c r="I195" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
+      <c r="A196" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B196" t="s">
+        <v>1</v>
+      </c>
+      <c r="C196" s="9" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D196" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E196" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F196" t="s">
+        <v>1079</v>
+      </c>
+      <c r="G196">
+        <v>0</v>
+      </c>
+      <c r="H196" t="s">
+        <v>2</v>
+      </c>
+      <c r="I196" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
+      <c r="A197" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B197" t="s">
+        <v>1</v>
+      </c>
+      <c r="C197" s="9" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D197" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E197" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F197" t="s">
+        <v>1085</v>
+      </c>
+      <c r="G197">
+        <v>0</v>
+      </c>
+      <c r="H197" t="s">
+        <v>2</v>
+      </c>
+      <c r="I197" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
+      <c r="A198" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B198" t="s">
+        <v>1</v>
+      </c>
+      <c r="C198" s="9" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D198" t="s">
+        <v>991</v>
+      </c>
+      <c r="E198" t="s">
+        <v>1089</v>
+      </c>
+      <c r="F198" t="s">
+        <v>1090</v>
+      </c>
+      <c r="G198">
+        <v>0</v>
+      </c>
+      <c r="H198" t="s">
+        <v>2</v>
+      </c>
+      <c r="I198" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
+      <c r="A199" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B199" t="s">
+        <v>1</v>
+      </c>
+      <c r="C199" s="9" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D199" t="s">
+        <v>1094</v>
+      </c>
+      <c r="E199" t="s">
+        <v>1095</v>
+      </c>
+      <c r="F199" t="s">
+        <v>1096</v>
+      </c>
+      <c r="G199">
+        <v>0</v>
+      </c>
+      <c r="H199" t="s">
+        <v>2</v>
+      </c>
+      <c r="I199" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
+      <c r="A200" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B200" t="s">
+        <v>1</v>
+      </c>
+      <c r="C200" s="9" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D200" t="s">
+        <v>1100</v>
+      </c>
+      <c r="E200" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F200" t="s">
+        <v>1102</v>
+      </c>
+      <c r="G200">
+        <v>0</v>
+      </c>
+      <c r="H200" t="s">
+        <v>2</v>
+      </c>
+      <c r="I200" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
+      <c r="A201" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B201" t="s">
+        <v>1</v>
+      </c>
+      <c r="C201" s="9" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D201" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E201" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F201" t="s">
+        <v>1108</v>
+      </c>
+      <c r="G201">
+        <v>0</v>
+      </c>
+      <c r="H201" t="s">
+        <v>2</v>
+      </c>
+      <c r="I201" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
+      <c r="A202" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B202" t="s">
+        <v>1</v>
+      </c>
+      <c r="C202" s="9" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D202" t="s">
+        <v>1112</v>
+      </c>
+      <c r="E202" t="s">
+        <v>1113</v>
+      </c>
+      <c r="F202" t="s">
+        <v>1114</v>
+      </c>
+      <c r="G202">
+        <v>0</v>
+      </c>
+      <c r="H202" t="s">
+        <v>2</v>
+      </c>
+      <c r="I202" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
+      <c r="A203" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B203" t="s">
+        <v>1</v>
+      </c>
+      <c r="C203" s="9" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D203" t="s">
+        <v>926</v>
+      </c>
+      <c r="E203" t="s">
+        <v>1118</v>
+      </c>
+      <c r="F203" t="s">
+        <v>1119</v>
+      </c>
+      <c r="G203">
+        <v>0</v>
+      </c>
+      <c r="H203" t="s">
+        <v>2</v>
+      </c>
+      <c r="I203" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
+      <c r="A204" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B204" t="s">
+        <v>1</v>
+      </c>
+      <c r="C204" s="9" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D204" t="s">
+        <v>1123</v>
+      </c>
+      <c r="E204" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F204" t="s">
+        <v>1125</v>
+      </c>
+      <c r="G204">
+        <v>0</v>
+      </c>
+      <c r="H204" t="s">
+        <v>2</v>
+      </c>
+      <c r="I204" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
+      <c r="A205" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B205" t="s">
+        <v>1</v>
+      </c>
+      <c r="C205" s="9" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D205" t="s">
+        <v>359</v>
+      </c>
+      <c r="E205" t="s">
+        <v>1129</v>
+      </c>
+      <c r="F205" t="s">
+        <v>1130</v>
+      </c>
+      <c r="G205">
+        <v>0</v>
+      </c>
+      <c r="H205" t="s">
+        <v>2</v>
+      </c>
+      <c r="I205" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
+      <c r="A206" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B206" t="s">
+        <v>1</v>
+      </c>
+      <c r="C206" s="9" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D206" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E206" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F206" t="s">
+        <v>1136</v>
+      </c>
+      <c r="G206">
+        <v>0</v>
+      </c>
+      <c r="H206" t="s">
+        <v>2</v>
+      </c>
+      <c r="I206" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
+      <c r="A207" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B207" t="s">
+        <v>1</v>
+      </c>
+      <c r="C207" s="9" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D207" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E207" t="s">
+        <v>1141</v>
+      </c>
+      <c r="F207" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G207">
+        <v>0</v>
+      </c>
+      <c r="H207" t="s">
+        <v>2</v>
+      </c>
+      <c r="I207" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
+      <c r="A208" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B208" t="s">
+        <v>1</v>
+      </c>
+      <c r="C208" s="9" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D208" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E208" t="s">
+        <v>1147</v>
+      </c>
+      <c r="F208" t="s">
+        <v>1148</v>
+      </c>
+      <c r="G208">
+        <v>0</v>
+      </c>
+      <c r="H208" t="s">
+        <v>2</v>
+      </c>
+      <c r="I208" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
+      <c r="A209" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B209" t="s">
+        <v>1</v>
+      </c>
+      <c r="C209" s="9" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D209" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E209" t="s">
+        <v>1153</v>
+      </c>
+      <c r="F209" t="s">
+        <v>450</v>
+      </c>
+      <c r="G209">
+        <v>0</v>
+      </c>
+      <c r="H209" t="s">
+        <v>2</v>
+      </c>
+      <c r="I209" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
+      <c r="A210" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B210" t="s">
+        <v>1</v>
+      </c>
+      <c r="C210" s="9" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D210" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E210" t="s">
+        <v>1158</v>
+      </c>
+      <c r="F210" t="s">
+        <v>1159</v>
+      </c>
+      <c r="G210">
+        <v>0</v>
+      </c>
+      <c r="H210" t="s">
+        <v>2</v>
+      </c>
+      <c r="I210" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
+      <c r="A211" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B211" t="s">
+        <v>1</v>
+      </c>
+      <c r="C211" s="9" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D211" t="s">
+        <v>1163</v>
+      </c>
+      <c r="E211" t="s">
+        <v>1164</v>
+      </c>
+      <c r="F211" t="s">
+        <v>1165</v>
+      </c>
+      <c r="G211">
+        <v>0</v>
+      </c>
+      <c r="H211" t="s">
+        <v>2</v>
+      </c>
+      <c r="I211" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
+      <c r="A212" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B212" t="s">
+        <v>1</v>
+      </c>
+      <c r="C212" s="9" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D212" t="s">
+        <v>1169</v>
+      </c>
+      <c r="E212" t="s">
+        <v>1170</v>
+      </c>
+      <c r="F212" t="s">
+        <v>1171</v>
+      </c>
+      <c r="G212">
+        <v>0</v>
+      </c>
+      <c r="H212" t="s">
+        <v>2</v>
+      </c>
+      <c r="I212" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
+      <c r="A213" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B213" t="s">
+        <v>1</v>
+      </c>
+      <c r="C213" s="9" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D213" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E213" t="s">
+        <v>175</v>
+      </c>
+      <c r="F213" t="s">
+        <v>1176</v>
+      </c>
+      <c r="G213">
+        <v>0</v>
+      </c>
+      <c r="H213" t="s">
+        <v>2</v>
+      </c>
+      <c r="I213" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
+      <c r="A214" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B214" t="s">
+        <v>1</v>
+      </c>
+      <c r="C214" s="9" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D214" t="s">
+        <v>1180</v>
+      </c>
+      <c r="E214" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F214" t="s">
+        <v>1182</v>
+      </c>
+      <c r="G214">
+        <v>0</v>
+      </c>
+      <c r="H214" t="s">
+        <v>2</v>
+      </c>
+      <c r="I214" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9">
+      <c r="A215" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B215" t="s">
+        <v>1</v>
+      </c>
+      <c r="C215" s="9" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D215" t="s">
+        <v>1186</v>
+      </c>
+      <c r="E215" t="s">
+        <v>1187</v>
+      </c>
+      <c r="F215" t="s">
+        <v>1188</v>
+      </c>
+      <c r="G215">
+        <v>0</v>
+      </c>
+      <c r="H215" t="s">
+        <v>2</v>
+      </c>
+      <c r="I215" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9">
+      <c r="A216" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B216" t="s">
+        <v>1</v>
+      </c>
+      <c r="C216" s="9" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D216" t="s">
+        <v>1192</v>
+      </c>
+      <c r="E216" t="s">
+        <v>1193</v>
+      </c>
+      <c r="F216" t="s">
+        <v>1194</v>
+      </c>
+      <c r="G216">
+        <v>0</v>
+      </c>
+      <c r="H216" t="s">
+        <v>2</v>
+      </c>
+      <c r="I216" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9">
+      <c r="A217" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B217" t="s">
+        <v>1</v>
+      </c>
+      <c r="C217" s="9" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D217" t="s">
+        <v>1198</v>
+      </c>
+      <c r="E217" t="s">
+        <v>1199</v>
+      </c>
+      <c r="F217" t="s">
+        <v>1200</v>
+      </c>
+      <c r="G217">
+        <v>0</v>
+      </c>
+      <c r="H217" t="s">
+        <v>2</v>
+      </c>
+      <c r="I217" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9">
+      <c r="A218" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B218" t="s">
+        <v>1</v>
+      </c>
+      <c r="C218" s="9" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D218" t="s">
+        <v>1204</v>
+      </c>
+      <c r="E218" t="s">
+        <v>1205</v>
+      </c>
+      <c r="F218" t="s">
+        <v>748</v>
+      </c>
+      <c r="G218">
+        <v>0</v>
+      </c>
+      <c r="H218" t="s">
+        <v>2</v>
+      </c>
+      <c r="I218" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9">
+      <c r="A219" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B219" t="s">
+        <v>1</v>
+      </c>
+      <c r="C219" s="9" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D219" t="s">
+        <v>1209</v>
+      </c>
+      <c r="E219" t="s">
+        <v>1210</v>
+      </c>
+      <c r="F219" t="s">
+        <v>1211</v>
+      </c>
+      <c r="G219">
+        <v>0</v>
+      </c>
+      <c r="H219" t="s">
+        <v>2</v>
+      </c>
+      <c r="I219" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9">
+      <c r="A220" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B220" t="s">
+        <v>1</v>
+      </c>
+      <c r="C220" s="9" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D220" t="s">
+        <v>1215</v>
+      </c>
+      <c r="E220" t="s">
+        <v>175</v>
+      </c>
+      <c r="F220" t="s">
+        <v>1216</v>
+      </c>
+      <c r="G220">
+        <v>0</v>
+      </c>
+      <c r="H220" t="s">
+        <v>2</v>
+      </c>
+      <c r="I220" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9">
+      <c r="A221" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B221" t="s">
+        <v>1</v>
+      </c>
+      <c r="C221" s="9" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D221" t="s">
+        <v>1220</v>
+      </c>
+      <c r="E221" t="s">
+        <v>1221</v>
+      </c>
+      <c r="F221" t="s">
+        <v>1222</v>
+      </c>
+      <c r="G221">
+        <v>0</v>
+      </c>
+      <c r="H221" t="s">
+        <v>2</v>
+      </c>
+      <c r="I221" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9">
+      <c r="A222" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B222" t="s">
+        <v>1</v>
+      </c>
+      <c r="C222" s="9" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D222" t="s">
+        <v>689</v>
+      </c>
+      <c r="E222" t="s">
+        <v>1226</v>
+      </c>
+      <c r="F222" t="s">
+        <v>1227</v>
+      </c>
+      <c r="G222">
+        <v>0</v>
+      </c>
+      <c r="H222" t="s">
+        <v>2</v>
+      </c>
+      <c r="I222" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9">
+      <c r="A223" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B223" t="s">
+        <v>1</v>
+      </c>
+      <c r="C223" s="9" t="s">
+        <v>1230</v>
+      </c>
+      <c r="D223" t="s">
+        <v>1231</v>
+      </c>
+      <c r="E223" t="s">
+        <v>1232</v>
+      </c>
+      <c r="F223" t="s">
+        <v>1233</v>
+      </c>
+      <c r="G223">
+        <v>0</v>
+      </c>
+      <c r="H223" t="s">
+        <v>2</v>
+      </c>
+      <c r="I223" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9">
+      <c r="A224" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B224" t="s">
+        <v>1</v>
+      </c>
+      <c r="C224" s="9" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D224" t="s">
+        <v>1237</v>
+      </c>
+      <c r="E224" t="s">
+        <v>1238</v>
+      </c>
+      <c r="F224" t="s">
+        <v>1239</v>
+      </c>
+      <c r="G224">
+        <v>0</v>
+      </c>
+      <c r="H224" t="s">
+        <v>2</v>
+      </c>
+      <c r="I224" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9">
+      <c r="A225" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B225" t="s">
+        <v>1</v>
+      </c>
+      <c r="C225" s="9" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D225" t="s">
+        <v>1243</v>
+      </c>
+      <c r="E225" t="s">
+        <v>1244</v>
+      </c>
+      <c r="F225" t="s">
+        <v>1245</v>
+      </c>
+      <c r="G225">
+        <v>0</v>
+      </c>
+      <c r="H225" t="s">
+        <v>2</v>
+      </c>
+      <c r="I225" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9">
+      <c r="A226" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B226" t="s">
+        <v>1</v>
+      </c>
+      <c r="C226" s="9" t="s">
+        <v>1248</v>
+      </c>
+      <c r="D226" t="s">
+        <v>1249</v>
+      </c>
+      <c r="E226" t="s">
+        <v>1250</v>
+      </c>
+      <c r="F226" t="s">
+        <v>1251</v>
+      </c>
+      <c r="G226">
+        <v>0</v>
+      </c>
+      <c r="H226" t="s">
+        <v>2</v>
+      </c>
+      <c r="I226" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9">
+      <c r="A227" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B227" t="s">
+        <v>1</v>
+      </c>
+      <c r="C227" s="9" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D227" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E227" t="s">
+        <v>175</v>
+      </c>
+      <c r="F227" t="s">
+        <v>1256</v>
+      </c>
+      <c r="G227">
+        <v>0</v>
+      </c>
+      <c r="H227" t="s">
+        <v>2</v>
+      </c>
+      <c r="I227" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9">
+      <c r="A228" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B228" t="s">
+        <v>1</v>
+      </c>
+      <c r="C228" s="9" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D228" t="s">
+        <v>1260</v>
+      </c>
+      <c r="E228" t="s">
+        <v>1261</v>
+      </c>
+      <c r="F228" t="s">
+        <v>1262</v>
+      </c>
+      <c r="G228">
+        <v>0</v>
+      </c>
+      <c r="H228" t="s">
+        <v>2</v>
+      </c>
+      <c r="I228" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9">
+      <c r="A229" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B229" t="s">
+        <v>1</v>
+      </c>
+      <c r="C229" s="9" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D229" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E229" t="s">
+        <v>1267</v>
+      </c>
+      <c r="F229" t="s">
+        <v>1268</v>
+      </c>
+      <c r="G229">
+        <v>0</v>
+      </c>
+      <c r="H229" t="s">
+        <v>2</v>
+      </c>
+      <c r="I229" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9">
+      <c r="A230" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B230" t="s">
+        <v>1</v>
+      </c>
+      <c r="C230" s="9" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D230" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E230" t="s">
+        <v>1273</v>
+      </c>
+      <c r="F230" t="s">
+        <v>1274</v>
+      </c>
+      <c r="G230">
+        <v>0</v>
+      </c>
+      <c r="H230" t="s">
+        <v>2</v>
+      </c>
+      <c r="I230" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9">
+      <c r="A231" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B231" t="s">
+        <v>1</v>
+      </c>
+      <c r="C231" s="9" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D231" t="s">
+        <v>648</v>
+      </c>
+      <c r="E231" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F231" t="s">
+        <v>1279</v>
+      </c>
+      <c r="G231">
+        <v>0</v>
+      </c>
+      <c r="H231" t="s">
+        <v>2</v>
+      </c>
+      <c r="I231" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9">
+      <c r="A232" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B232" t="s">
+        <v>1</v>
+      </c>
+      <c r="C232" s="9" t="s">
+        <v>1282</v>
+      </c>
+      <c r="D232" t="s">
+        <v>1283</v>
+      </c>
+      <c r="E232" t="s">
+        <v>1284</v>
+      </c>
+      <c r="F232" t="s">
+        <v>1285</v>
+      </c>
+      <c r="G232">
+        <v>0</v>
+      </c>
+      <c r="H232" t="s">
+        <v>2</v>
+      </c>
+      <c r="I232" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9">
+      <c r="A233" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B233" t="s">
+        <v>1</v>
+      </c>
+      <c r="C233" s="9" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D233" t="s">
+        <v>1289</v>
+      </c>
+      <c r="E233" t="s">
+        <v>1290</v>
+      </c>
+      <c r="F233" t="s">
+        <v>1291</v>
+      </c>
+      <c r="G233">
+        <v>0</v>
+      </c>
+      <c r="H233" t="s">
+        <v>2</v>
+      </c>
+      <c r="I233" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9">
+      <c r="A234" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B234" t="s">
+        <v>1</v>
+      </c>
+      <c r="C234" s="9" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D234" t="s">
+        <v>1295</v>
+      </c>
+      <c r="E234" t="s">
+        <v>1296</v>
+      </c>
+      <c r="F234" t="s">
+        <v>1297</v>
+      </c>
+      <c r="G234">
+        <v>0</v>
+      </c>
+      <c r="H234" t="s">
+        <v>2</v>
+      </c>
+      <c r="I234" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9">
+      <c r="A235" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B235" t="s">
+        <v>1</v>
+      </c>
+      <c r="C235" s="9" t="s">
+        <v>1300</v>
+      </c>
+      <c r="D235" t="s">
+        <v>1301</v>
+      </c>
+      <c r="E235" t="s">
+        <v>1302</v>
+      </c>
+      <c r="F235" t="s">
+        <v>1303</v>
+      </c>
+      <c r="G235">
+        <v>0</v>
+      </c>
+      <c r="H235" t="s">
+        <v>2</v>
+      </c>
+      <c r="I235" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9">
+      <c r="A236" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B236" t="s">
+        <v>1</v>
+      </c>
+      <c r="C236" s="9" t="s">
+        <v>1306</v>
+      </c>
+      <c r="D236" t="s">
+        <v>1307</v>
+      </c>
+      <c r="E236" t="s">
+        <v>1308</v>
+      </c>
+      <c r="F236" t="s">
+        <v>1309</v>
+      </c>
+      <c r="G236">
+        <v>0</v>
+      </c>
+      <c r="H236" t="s">
+        <v>2</v>
+      </c>
+      <c r="I236" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9">
+      <c r="A237" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B237" t="s">
+        <v>1</v>
+      </c>
+      <c r="C237" s="9" t="s">
+        <v>1312</v>
+      </c>
+      <c r="D237" t="s">
+        <v>1313</v>
+      </c>
+      <c r="E237" t="s">
+        <v>1314</v>
+      </c>
+      <c r="F237" t="s">
+        <v>1315</v>
+      </c>
+      <c r="G237">
+        <v>0</v>
+      </c>
+      <c r="H237" t="s">
+        <v>2</v>
+      </c>
+      <c r="I237" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9">
+      <c r="A238" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B238" t="s">
+        <v>1</v>
+      </c>
+      <c r="C238" s="9" t="s">
+        <v>1318</v>
+      </c>
+      <c r="D238" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E238" t="s">
+        <v>1320</v>
+      </c>
+      <c r="F238" t="s">
+        <v>1321</v>
+      </c>
+      <c r="G238">
+        <v>0</v>
+      </c>
+      <c r="H238" t="s">
+        <v>2</v>
+      </c>
+      <c r="I238" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9">
+      <c r="A239" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B239" t="s">
+        <v>1</v>
+      </c>
+      <c r="C239" s="9" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D239" t="s">
+        <v>1325</v>
+      </c>
+      <c r="E239" t="s">
+        <v>1326</v>
+      </c>
+      <c r="F239" t="s">
+        <v>1327</v>
+      </c>
+      <c r="G239">
+        <v>0</v>
+      </c>
+      <c r="H239" t="s">
+        <v>2</v>
+      </c>
+      <c r="I239" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9">
+      <c r="A240" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B240" t="s">
+        <v>1</v>
+      </c>
+      <c r="C240" s="9" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D240" t="s">
+        <v>1331</v>
+      </c>
+      <c r="E240" t="s">
+        <v>1332</v>
+      </c>
+      <c r="F240" t="s">
+        <v>1333</v>
+      </c>
+      <c r="G240">
+        <v>0</v>
+      </c>
+      <c r="H240" t="s">
+        <v>2</v>
+      </c>
+      <c r="I240" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9">
+      <c r="A241" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B241" t="s">
+        <v>1</v>
+      </c>
+      <c r="C241" s="9" t="s">
+        <v>1336</v>
+      </c>
+      <c r="D241" t="s">
+        <v>950</v>
+      </c>
+      <c r="E241" t="s">
+        <v>1337</v>
+      </c>
+      <c r="F241" t="s">
+        <v>1338</v>
+      </c>
+      <c r="G241">
+        <v>0</v>
+      </c>
+      <c r="H241" t="s">
+        <v>2</v>
+      </c>
+      <c r="I241" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9">
+      <c r="A242" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B242" t="s">
+        <v>1</v>
+      </c>
+      <c r="C242" s="9" t="s">
+        <v>1341</v>
+      </c>
+      <c r="D242" t="s">
+        <v>1342</v>
+      </c>
+      <c r="E242" t="s">
+        <v>1343</v>
+      </c>
+      <c r="F242" t="s">
+        <v>1344</v>
+      </c>
+      <c r="G242">
+        <v>0</v>
+      </c>
+      <c r="H242" t="s">
+        <v>2</v>
+      </c>
+      <c r="I242" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9">
+      <c r="A243" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B243" t="s">
+        <v>1</v>
+      </c>
+      <c r="C243" s="9" t="s">
+        <v>1347</v>
+      </c>
+      <c r="D243" t="s">
+        <v>1348</v>
+      </c>
+      <c r="E243" t="s">
+        <v>1349</v>
+      </c>
+      <c r="F243" t="s">
+        <v>1350</v>
+      </c>
+      <c r="G243">
+        <v>0</v>
+      </c>
+      <c r="H243" t="s">
+        <v>2</v>
+      </c>
+      <c r="I243" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9">
+      <c r="A244" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B244" t="s">
+        <v>1</v>
+      </c>
+      <c r="C244" s="9" t="s">
+        <v>1353</v>
+      </c>
+      <c r="D244" t="s">
+        <v>1354</v>
+      </c>
+      <c r="E244" t="s">
+        <v>175</v>
+      </c>
+      <c r="F244" t="s">
+        <v>1355</v>
+      </c>
+      <c r="G244">
+        <v>0</v>
+      </c>
+      <c r="H244" t="s">
+        <v>2</v>
+      </c>
+      <c r="I244" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9">
+      <c r="A245" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B245" t="s">
+        <v>1</v>
+      </c>
+      <c r="C245" s="9" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D245" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E245" t="s">
+        <v>1360</v>
+      </c>
+      <c r="F245" t="s">
+        <v>1361</v>
+      </c>
+      <c r="G245">
+        <v>0</v>
+      </c>
+      <c r="H245" t="s">
+        <v>2</v>
+      </c>
+      <c r="I245" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9">
+      <c r="A246" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B246" t="s">
+        <v>1</v>
+      </c>
+      <c r="C246" s="9" t="s">
+        <v>1364</v>
+      </c>
+      <c r="D246" t="s">
+        <v>1365</v>
+      </c>
+      <c r="E246" t="s">
+        <v>1366</v>
+      </c>
+      <c r="F246" t="s">
+        <v>1367</v>
+      </c>
+      <c r="G246">
+        <v>0</v>
+      </c>
+      <c r="H246" t="s">
+        <v>2</v>
+      </c>
+      <c r="I246" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9">
+      <c r="A247" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B247" t="s">
+        <v>1</v>
+      </c>
+      <c r="C247" s="9" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D247" t="s">
+        <v>1371</v>
+      </c>
+      <c r="E247" t="s">
+        <v>1372</v>
+      </c>
+      <c r="F247" t="s">
+        <v>1373</v>
+      </c>
+      <c r="G247">
+        <v>0</v>
+      </c>
+      <c r="H247" t="s">
+        <v>2</v>
+      </c>
+      <c r="I247" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9">
+      <c r="A248" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B248" t="s">
+        <v>1</v>
+      </c>
+      <c r="C248" s="9" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D248" t="s">
+        <v>1377</v>
+      </c>
+      <c r="E248" t="s">
+        <v>1378</v>
+      </c>
+      <c r="F248" t="s">
+        <v>1379</v>
+      </c>
+      <c r="G248">
+        <v>0</v>
+      </c>
+      <c r="H248" t="s">
+        <v>2</v>
+      </c>
+      <c r="I248" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9">
+      <c r="A249" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B249" t="s">
+        <v>1</v>
+      </c>
+      <c r="C249" s="9" t="s">
+        <v>1382</v>
+      </c>
+      <c r="D249" t="s">
+        <v>1383</v>
+      </c>
+      <c r="E249" t="s">
+        <v>1384</v>
+      </c>
+      <c r="F249" t="s">
+        <v>1239</v>
+      </c>
+      <c r="G249">
+        <v>0</v>
+      </c>
+      <c r="H249" t="s">
+        <v>2</v>
+      </c>
+      <c r="I249" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9">
+      <c r="A250" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B250" t="s">
+        <v>1</v>
+      </c>
+      <c r="C250" s="9" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D250" t="s">
+        <v>1388</v>
+      </c>
+      <c r="E250" t="s">
+        <v>1389</v>
+      </c>
+      <c r="F250" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G250">
+        <v>0</v>
+      </c>
+      <c r="H250" t="s">
+        <v>2</v>
+      </c>
+      <c r="I250" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9">
+      <c r="A251" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B251" t="s">
+        <v>1</v>
+      </c>
+      <c r="C251" s="9" t="s">
+        <v>1393</v>
+      </c>
+      <c r="D251" t="s">
+        <v>1394</v>
+      </c>
+      <c r="E251" t="s">
+        <v>175</v>
+      </c>
+      <c r="F251" t="s">
+        <v>1395</v>
+      </c>
+      <c r="G251">
+        <v>0</v>
+      </c>
+      <c r="H251" t="s">
+        <v>2</v>
+      </c>
+      <c r="I251" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9">
+      <c r="A252" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B252" t="s">
+        <v>1</v>
+      </c>
+      <c r="C252" s="9" t="s">
+        <v>1398</v>
+      </c>
+      <c r="D252" t="s">
+        <v>1399</v>
+      </c>
+      <c r="E252" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F252" t="s">
+        <v>1401</v>
+      </c>
+      <c r="G252">
+        <v>0</v>
+      </c>
+      <c r="H252" t="s">
+        <v>2</v>
+      </c>
+      <c r="I252" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9">
+      <c r="A253" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B253" t="s">
+        <v>1</v>
+      </c>
+      <c r="C253" s="9" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D253" t="s">
+        <v>1405</v>
+      </c>
+      <c r="E253" t="s">
+        <v>1406</v>
+      </c>
+      <c r="F253" t="s">
+        <v>1407</v>
+      </c>
+      <c r="G253">
+        <v>0</v>
+      </c>
+      <c r="H253" t="s">
+        <v>2</v>
+      </c>
+      <c r="I253" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9">
+      <c r="A254" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B254" t="s">
+        <v>1</v>
+      </c>
+      <c r="C254" s="9" t="s">
+        <v>1410</v>
+      </c>
+      <c r="D254" t="s">
+        <v>1411</v>
+      </c>
+      <c r="E254" t="s">
+        <v>1412</v>
+      </c>
+      <c r="F254" t="s">
+        <v>1413</v>
+      </c>
+      <c r="G254">
+        <v>0</v>
+      </c>
+      <c r="H254" t="s">
+        <v>2</v>
+      </c>
+      <c r="I254" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9">
+      <c r="A255" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B255" t="s">
+        <v>1</v>
+      </c>
+      <c r="C255" s="9" t="s">
+        <v>1416</v>
+      </c>
+      <c r="D255" t="s">
+        <v>1417</v>
+      </c>
+      <c r="E255" t="s">
+        <v>1418</v>
+      </c>
+      <c r="F255" t="s">
+        <v>1419</v>
+      </c>
+      <c r="G255">
+        <v>0</v>
+      </c>
+      <c r="H255" t="s">
+        <v>2</v>
+      </c>
+      <c r="I255" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9">
+      <c r="A256" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B256" t="s">
+        <v>1</v>
+      </c>
+      <c r="C256" s="9" t="s">
+        <v>1422</v>
+      </c>
+      <c r="D256" t="s">
+        <v>1423</v>
+      </c>
+      <c r="E256" t="s">
+        <v>1424</v>
+      </c>
+      <c r="F256" t="s">
+        <v>1425</v>
+      </c>
+      <c r="G256">
+        <v>0</v>
+      </c>
+      <c r="H256" t="s">
+        <v>2</v>
+      </c>
+      <c r="I256" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9">
+      <c r="A257" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B257" t="s">
+        <v>1</v>
+      </c>
+      <c r="C257" s="9" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D257" t="s">
+        <v>1429</v>
+      </c>
+      <c r="E257" t="s">
+        <v>1430</v>
+      </c>
+      <c r="F257" t="s">
+        <v>1431</v>
+      </c>
+      <c r="G257">
+        <v>0</v>
+      </c>
+      <c r="H257" t="s">
+        <v>2</v>
+      </c>
+      <c r="I257" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9">
+      <c r="A258" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B258" t="s">
+        <v>1</v>
+      </c>
+      <c r="C258" s="9" t="s">
+        <v>1434</v>
+      </c>
+      <c r="D258" t="s">
+        <v>1435</v>
+      </c>
+      <c r="E258" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F258" t="s">
+        <v>1437</v>
+      </c>
+      <c r="G258">
+        <v>0</v>
+      </c>
+      <c r="H258" t="s">
+        <v>2</v>
+      </c>
+      <c r="I258" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9">
+      <c r="A259" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B259" t="s">
+        <v>1</v>
+      </c>
+      <c r="C259" s="9" t="s">
+        <v>1440</v>
+      </c>
+      <c r="D259" t="s">
+        <v>1441</v>
+      </c>
+      <c r="E259" t="s">
+        <v>1442</v>
+      </c>
+      <c r="F259" t="s">
+        <v>1443</v>
+      </c>
+      <c r="G259">
+        <v>0</v>
+      </c>
+      <c r="H259" t="s">
+        <v>2</v>
+      </c>
+      <c r="I259" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9">
+      <c r="A260" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B260" t="s">
+        <v>1</v>
+      </c>
+      <c r="C260" s="9" t="s">
+        <v>1446</v>
+      </c>
+      <c r="D260" t="s">
+        <v>1447</v>
+      </c>
+      <c r="E260" t="s">
+        <v>1448</v>
+      </c>
+      <c r="F260" t="s">
+        <v>541</v>
+      </c>
+      <c r="G260">
+        <v>0</v>
+      </c>
+      <c r="H260" t="s">
+        <v>2</v>
+      </c>
+      <c r="I260" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9">
+      <c r="A261" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B261" t="s">
+        <v>1</v>
+      </c>
+      <c r="C261" s="9" t="s">
+        <v>1451</v>
+      </c>
+      <c r="D261" t="s">
+        <v>1452</v>
+      </c>
+      <c r="E261" t="s">
+        <v>1453</v>
+      </c>
+      <c r="F261" t="s">
+        <v>1454</v>
+      </c>
+      <c r="G261">
+        <v>0</v>
+      </c>
+      <c r="H261" t="s">
+        <v>2</v>
+      </c>
+      <c r="I261" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9">
+      <c r="A262" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B262" t="s">
+        <v>1</v>
+      </c>
+      <c r="C262" s="9" t="s">
+        <v>1457</v>
+      </c>
+      <c r="D262" t="s">
+        <v>1458</v>
+      </c>
+      <c r="E262" t="s">
+        <v>1459</v>
+      </c>
+      <c r="F262" t="s">
+        <v>1460</v>
+      </c>
+      <c r="G262">
+        <v>0</v>
+      </c>
+      <c r="H262" t="s">
+        <v>2</v>
+      </c>
+      <c r="I262" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B263" t="s">
+        <v>1</v>
+      </c>
+      <c r="C263" s="9" t="s">
+        <v>1463</v>
+      </c>
+      <c r="D263" t="s">
+        <v>1464</v>
+      </c>
+      <c r="E263" t="s">
+        <v>1465</v>
+      </c>
+      <c r="F263" t="s">
+        <v>1466</v>
+      </c>
+      <c r="G263">
+        <v>0</v>
+      </c>
+      <c r="H263" t="s">
+        <v>2</v>
+      </c>
+      <c r="I263" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B264" t="s">
+        <v>1</v>
+      </c>
+      <c r="C264" s="9" t="s">
+        <v>1469</v>
+      </c>
+      <c r="D264" t="s">
+        <v>1470</v>
+      </c>
+      <c r="E264" t="s">
+        <v>1471</v>
+      </c>
+      <c r="F264" t="s">
+        <v>1472</v>
+      </c>
+      <c r="G264">
+        <v>0</v>
+      </c>
+      <c r="H264" t="s">
+        <v>2</v>
+      </c>
+      <c r="I264" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B265" t="s">
+        <v>1</v>
+      </c>
+      <c r="C265" s="9" t="s">
+        <v>1475</v>
+      </c>
+      <c r="D265" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E265" t="s">
+        <v>1477</v>
+      </c>
+      <c r="F265" t="s">
+        <v>1478</v>
+      </c>
+      <c r="G265">
+        <v>0</v>
+      </c>
+      <c r="H265" t="s">
+        <v>2</v>
+      </c>
+      <c r="I265" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B266" t="s">
+        <v>1</v>
+      </c>
+      <c r="C266" s="9" t="s">
+        <v>1481</v>
+      </c>
+      <c r="D266" t="s">
+        <v>359</v>
+      </c>
+      <c r="E266" t="s">
+        <v>360</v>
+      </c>
+      <c r="F266" t="s">
+        <v>1482</v>
+      </c>
+      <c r="G266">
+        <v>0</v>
+      </c>
+      <c r="H266" t="s">
+        <v>2</v>
+      </c>
+      <c r="I266" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B267" t="s">
+        <v>1</v>
+      </c>
+      <c r="C267" s="9" t="s">
+        <v>1485</v>
+      </c>
+      <c r="D267" t="s">
+        <v>1486</v>
+      </c>
+      <c r="E267" t="s">
+        <v>1487</v>
+      </c>
+      <c r="F267" t="s">
+        <v>1488</v>
+      </c>
+      <c r="G267">
+        <v>0</v>
+      </c>
+      <c r="H267" t="s">
+        <v>2</v>
+      </c>
+      <c r="I267" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B268" t="s">
+        <v>1</v>
+      </c>
+      <c r="C268" s="9" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D268" t="s">
+        <v>1492</v>
+      </c>
+      <c r="E268" t="s">
+        <v>1493</v>
+      </c>
+      <c r="F268" t="s">
+        <v>1494</v>
+      </c>
+      <c r="G268">
+        <v>0</v>
+      </c>
+      <c r="H268" t="s">
+        <v>2</v>
+      </c>
+      <c r="I268" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B269" t="s">
+        <v>1</v>
+      </c>
+      <c r="C269" s="9" t="s">
+        <v>1497</v>
+      </c>
+      <c r="D269" t="s">
+        <v>1498</v>
+      </c>
+      <c r="E269" t="s">
+        <v>1499</v>
+      </c>
+      <c r="F269" t="s">
+        <v>1500</v>
+      </c>
+      <c r="G269">
+        <v>0</v>
+      </c>
+      <c r="H269" t="s">
+        <v>2</v>
+      </c>
+      <c r="I269" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B270" t="s">
+        <v>1</v>
+      </c>
+      <c r="C270" s="9" t="s">
+        <v>1503</v>
+      </c>
+      <c r="D270" t="s">
+        <v>1504</v>
+      </c>
+      <c r="E270" t="s">
+        <v>1505</v>
+      </c>
+      <c r="F270" t="s">
+        <v>1506</v>
+      </c>
+      <c r="G270">
+        <v>0</v>
+      </c>
+      <c r="H270" t="s">
+        <v>2</v>
+      </c>
+      <c r="I270" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B271" t="s">
+        <v>1</v>
+      </c>
+      <c r="C271" s="9" t="s">
+        <v>1509</v>
+      </c>
+      <c r="D271" t="s">
+        <v>1510</v>
+      </c>
+      <c r="E271" t="s">
+        <v>1511</v>
+      </c>
+      <c r="F271" t="s">
+        <v>1512</v>
+      </c>
+      <c r="G271">
+        <v>0</v>
+      </c>
+      <c r="H271" t="s">
+        <v>2</v>
+      </c>
+      <c r="I271" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B272" t="s">
+        <v>1</v>
+      </c>
+      <c r="C272" s="9" t="s">
+        <v>1515</v>
+      </c>
+      <c r="D272" t="s">
+        <v>1516</v>
+      </c>
+      <c r="E272" t="s">
+        <v>1517</v>
+      </c>
+      <c r="F272" t="s">
+        <v>1518</v>
+      </c>
+      <c r="G272">
+        <v>0</v>
+      </c>
+      <c r="H272" t="s">
+        <v>2</v>
+      </c>
+      <c r="I272" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B273" t="s">
+        <v>1</v>
+      </c>
+      <c r="C273" s="9" t="s">
+        <v>1521</v>
+      </c>
+      <c r="D273" t="s">
+        <v>1522</v>
+      </c>
+      <c r="E273" t="s">
+        <v>1523</v>
+      </c>
+      <c r="F273" t="s">
+        <v>1524</v>
+      </c>
+      <c r="G273">
+        <v>0</v>
+      </c>
+      <c r="H273" t="s">
+        <v>2</v>
+      </c>
+      <c r="I273" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B274" t="s">
+        <v>1</v>
+      </c>
+      <c r="C274" s="9" t="s">
+        <v>1527</v>
+      </c>
+      <c r="D274" t="s">
+        <v>1528</v>
+      </c>
+      <c r="E274" t="s">
+        <v>1529</v>
+      </c>
+      <c r="F274" t="s">
+        <v>1530</v>
+      </c>
+      <c r="G274">
+        <v>0</v>
+      </c>
+      <c r="H274" t="s">
+        <v>2</v>
+      </c>
+      <c r="I274" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B275" t="s">
+        <v>1</v>
+      </c>
+      <c r="C275" s="9" t="s">
+        <v>1533</v>
+      </c>
+      <c r="D275" t="s">
+        <v>1534</v>
+      </c>
+      <c r="E275" t="s">
+        <v>1535</v>
+      </c>
+      <c r="F275" t="s">
+        <v>1536</v>
+      </c>
+      <c r="G275">
+        <v>0</v>
+      </c>
+      <c r="H275" t="s">
+        <v>2</v>
+      </c>
+      <c r="I275" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B276" t="s">
+        <v>1</v>
+      </c>
+      <c r="C276" s="9" t="s">
+        <v>1539</v>
+      </c>
+      <c r="D276" t="s">
+        <v>1540</v>
+      </c>
+      <c r="E276" t="s">
+        <v>1541</v>
+      </c>
+      <c r="F276" t="s">
+        <v>1542</v>
+      </c>
+      <c r="G276">
+        <v>0</v>
+      </c>
+      <c r="H276" t="s">
+        <v>2</v>
+      </c>
+      <c r="I276" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B277" t="s">
+        <v>1</v>
+      </c>
+      <c r="C277" s="9" t="s">
+        <v>1545</v>
+      </c>
+      <c r="D277" t="s">
+        <v>1546</v>
+      </c>
+      <c r="E277" t="s">
+        <v>1547</v>
+      </c>
+      <c r="F277" t="s">
+        <v>1548</v>
+      </c>
+      <c r="G277">
+        <v>0</v>
+      </c>
+      <c r="H277" t="s">
+        <v>2</v>
+      </c>
+      <c r="I277" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B278" t="s">
+        <v>1</v>
+      </c>
+      <c r="C278" s="9" t="s">
+        <v>1551</v>
+      </c>
+      <c r="D278" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E278" t="s">
+        <v>1553</v>
+      </c>
+      <c r="F278" t="s">
+        <v>1554</v>
+      </c>
+      <c r="G278">
+        <v>0</v>
+      </c>
+      <c r="H278" t="s">
+        <v>2</v>
+      </c>
+      <c r="I278" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B279" t="s">
+        <v>1</v>
+      </c>
+      <c r="C279" s="9" t="s">
+        <v>1557</v>
+      </c>
+      <c r="D279" t="s">
+        <v>1558</v>
+      </c>
+      <c r="E279" t="s">
+        <v>1559</v>
+      </c>
+      <c r="F279" t="s">
+        <v>1560</v>
+      </c>
+      <c r="G279">
+        <v>0</v>
+      </c>
+      <c r="H279" t="s">
+        <v>2</v>
+      </c>
+      <c r="I279" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B280" t="s">
+        <v>1</v>
+      </c>
+      <c r="C280" s="9" t="s">
+        <v>1563</v>
+      </c>
+      <c r="D280" t="s">
+        <v>1564</v>
+      </c>
+      <c r="E280" t="s">
+        <v>1565</v>
+      </c>
+      <c r="F280" t="s">
+        <v>1566</v>
+      </c>
+      <c r="G280">
+        <v>0</v>
+      </c>
+      <c r="H280" t="s">
+        <v>2</v>
+      </c>
+      <c r="I280" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s">
+        <v>1568</v>
+      </c>
+      <c r="B281" t="s">
+        <v>1</v>
+      </c>
+      <c r="C281" s="9" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D281" t="s">
+        <v>1570</v>
+      </c>
+      <c r="E281" t="s">
+        <v>1571</v>
+      </c>
+      <c r="F281" t="s">
+        <v>1572</v>
+      </c>
+      <c r="G281">
+        <v>0</v>
+      </c>
+      <c r="H281" t="s">
+        <v>2</v>
+      </c>
+      <c r="I281" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B282" t="s">
+        <v>1</v>
+      </c>
+      <c r="C282" s="9" t="s">
+        <v>1575</v>
+      </c>
+      <c r="D282" t="s">
+        <v>1576</v>
+      </c>
+      <c r="E282" t="s">
+        <v>1577</v>
+      </c>
+      <c r="F282" t="s">
+        <v>1578</v>
+      </c>
+      <c r="G282">
+        <v>0</v>
+      </c>
+      <c r="H282" t="s">
+        <v>2</v>
+      </c>
+      <c r="I282" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B283" t="s">
+        <v>1</v>
+      </c>
+      <c r="C283" s="9" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D283" t="s">
+        <v>1582</v>
+      </c>
+      <c r="E283" t="s">
+        <v>1583</v>
+      </c>
+      <c r="F283" t="s">
+        <v>1584</v>
+      </c>
+      <c r="G283">
+        <v>0</v>
+      </c>
+      <c r="H283" t="s">
+        <v>2</v>
+      </c>
+      <c r="I283" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B284" t="s">
+        <v>1</v>
+      </c>
+      <c r="C284" s="9" t="s">
+        <v>1587</v>
+      </c>
+      <c r="D284" t="s">
+        <v>1588</v>
+      </c>
+      <c r="E284" t="s">
+        <v>1589</v>
+      </c>
+      <c r="F284" t="s">
+        <v>1590</v>
+      </c>
+      <c r="G284">
+        <v>0</v>
+      </c>
+      <c r="H284" t="s">
+        <v>2</v>
+      </c>
+      <c r="I284" t="s">
+        <v>1591</v>
       </c>
     </row>
   </sheetData>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1592" uniqueCount="1592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1656" uniqueCount="1656">
   <si>
     <t>S051</t>
   </si>
@@ -4801,6 +4801,198 @@
   </si>
   <si>
     <t>static/uploads/S280.png</t>
+  </si>
+  <si>
+    <t>S281</t>
+  </si>
+  <si>
+    <t>3319021205760003</t>
+  </si>
+  <si>
+    <t>RIYANTO</t>
+  </si>
+  <si>
+    <t>085327275919</t>
+  </si>
+  <si>
+    <t>GANG MULYO RT 04/01 DESA MLATI LOR, KEC KOTA, KAB KUDUS</t>
+  </si>
+  <si>
+    <t>static/uploads/S281.png</t>
+  </si>
+  <si>
+    <t>S282</t>
+  </si>
+  <si>
+    <t>1871121103900010</t>
+  </si>
+  <si>
+    <t>DEKI MERDIANSYAH</t>
+  </si>
+  <si>
+    <t>082377621924</t>
+  </si>
+  <si>
+    <t>JATIRAHAYU RT 09 DESA CAMPANG JAYA, KEC SUKABUMI, KOTA BANDAR</t>
+  </si>
+  <si>
+    <t>static/uploads/S282.png</t>
+  </si>
+  <si>
+    <t>S283</t>
+  </si>
+  <si>
+    <t>3319010204810002</t>
+  </si>
+  <si>
+    <t>SAHADI</t>
+  </si>
+  <si>
+    <t>085280271235</t>
+  </si>
+  <si>
+    <t>GERUNG RT 04/02 DESA KALIWUNGU, KEC KALIWUNGU, KAB KUDUS</t>
+  </si>
+  <si>
+    <t>static/uploads/S283.png</t>
+  </si>
+  <si>
+    <t>S284</t>
+  </si>
+  <si>
+    <t>332412105850002</t>
+  </si>
+  <si>
+    <t>SAMUJI</t>
+  </si>
+  <si>
+    <t>088213774196</t>
+  </si>
+  <si>
+    <t>GADING KIDUL RT 03/05 DESA PURWOGONDO, KEC BOJA, KAB KUDUS</t>
+  </si>
+  <si>
+    <t>static/uploads/S284.png</t>
+  </si>
+  <si>
+    <t>S285</t>
+  </si>
+  <si>
+    <t>3319030605910002</t>
+  </si>
+  <si>
+    <t>SAPTA PRADANA</t>
+  </si>
+  <si>
+    <t>081228376635</t>
+  </si>
+  <si>
+    <t>RT 08/03 DESA GETAS PEJATEN, KEC JATI, KAB KUDUS</t>
+  </si>
+  <si>
+    <t>static/uploads/S285.png</t>
+  </si>
+  <si>
+    <t>S286</t>
+  </si>
+  <si>
+    <t>3319091612010001</t>
+  </si>
+  <si>
+    <t>SELAMET NUR RIYADI</t>
+  </si>
+  <si>
+    <t>081246133494</t>
+  </si>
+  <si>
+    <t>GRINGGING RT 04/01 DESA SAMIREJO, KEC DAWE, KAB KUDUS</t>
+  </si>
+  <si>
+    <t>static/uploads/S286.png</t>
+  </si>
+  <si>
+    <t>S287</t>
+  </si>
+  <si>
+    <t>3322020105580002</t>
+  </si>
+  <si>
+    <t>SUNARNO</t>
+  </si>
+  <si>
+    <t>088232750652</t>
+  </si>
+  <si>
+    <t>GINTUNGAN RT 20/11 DESA BUTUH, KEC TENGARAN, KAB SEMARANG</t>
+  </si>
+  <si>
+    <t>static/uploads/S287.png</t>
+  </si>
+  <si>
+    <t>S288</t>
+  </si>
+  <si>
+    <t>3315151109740001</t>
+  </si>
+  <si>
+    <t>082138569833</t>
+  </si>
+  <si>
+    <t>RT 02/01 DESA TERKESI, KEC KLAMBU, KAB GROBOGAN</t>
+  </si>
+  <si>
+    <t>static/uploads/S288.png</t>
+  </si>
+  <si>
+    <t>S289</t>
+  </si>
+  <si>
+    <t>3319031911790003</t>
+  </si>
+  <si>
+    <t>PURWANTO</t>
+  </si>
+  <si>
+    <t>085867600397</t>
+  </si>
+  <si>
+    <t>RT 08/01 DESA LORAM KULON, KEC JATI, KAB KUDUS</t>
+  </si>
+  <si>
+    <t>static/uploads/S289.png</t>
+  </si>
+  <si>
+    <t>S290</t>
+  </si>
+  <si>
+    <t>3319081912820003</t>
+  </si>
+  <si>
+    <t>085225222484</t>
+  </si>
+  <si>
+    <t>RT 04/03 DESA LORAM KULON, KEC JATI, KAB KUDUS</t>
+  </si>
+  <si>
+    <t>static/uploads/S290.png</t>
+  </si>
+  <si>
+    <t>S291</t>
+  </si>
+  <si>
+    <t>3319060409770003</t>
+  </si>
+  <si>
+    <t>NOOR KHANAFIT</t>
+  </si>
+  <si>
+    <t>082244292599</t>
+  </si>
+  <si>
+    <t>RT 03/03 DESA PLADEN, KEC JEKULO, KAB KUDUS</t>
+  </si>
+  <si>
+    <t>static/uploads/S291.png</t>
   </si>
 </sst>
 </file>
@@ -13333,6 +13525,325 @@
         <v>1591</v>
       </c>
     </row>
+    <row r="285">
+      <c r="A285" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B285" t="s">
+        <v>1</v>
+      </c>
+      <c r="C285" s="9" t="s">
+        <v>1593</v>
+      </c>
+      <c r="D285" t="s">
+        <v>1594</v>
+      </c>
+      <c r="E285" t="s">
+        <v>1595</v>
+      </c>
+      <c r="F285" t="s">
+        <v>1596</v>
+      </c>
+      <c r="G285">
+        <v>0</v>
+      </c>
+      <c r="H285" t="s">
+        <v>2</v>
+      </c>
+      <c r="I285" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B286" t="s">
+        <v>1</v>
+      </c>
+      <c r="C286" s="9" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D286" t="s">
+        <v>1600</v>
+      </c>
+      <c r="E286" t="s">
+        <v>1601</v>
+      </c>
+      <c r="F286" t="s">
+        <v>1602</v>
+      </c>
+      <c r="G286">
+        <v>0</v>
+      </c>
+      <c r="H286" t="s">
+        <v>2</v>
+      </c>
+      <c r="I286" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B287" t="s">
+        <v>1</v>
+      </c>
+      <c r="C287" s="9" t="s">
+        <v>1605</v>
+      </c>
+      <c r="D287" t="s">
+        <v>1606</v>
+      </c>
+      <c r="E287" t="s">
+        <v>1607</v>
+      </c>
+      <c r="F287" t="s">
+        <v>1608</v>
+      </c>
+      <c r="G287">
+        <v>0</v>
+      </c>
+      <c r="H287" t="s">
+        <v>2</v>
+      </c>
+      <c r="I287" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B288" t="s">
+        <v>1</v>
+      </c>
+      <c r="C288" s="9" t="s">
+        <v>1611</v>
+      </c>
+      <c r="D288" t="s">
+        <v>1612</v>
+      </c>
+      <c r="E288" t="s">
+        <v>1613</v>
+      </c>
+      <c r="F288" t="s">
+        <v>1614</v>
+      </c>
+      <c r="G288">
+        <v>0</v>
+      </c>
+      <c r="H288" t="s">
+        <v>2</v>
+      </c>
+      <c r="I288" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="s">
+        <v>1616</v>
+      </c>
+      <c r="B289" t="s">
+        <v>1</v>
+      </c>
+      <c r="C289" s="9" t="s">
+        <v>1617</v>
+      </c>
+      <c r="D289" t="s">
+        <v>1618</v>
+      </c>
+      <c r="E289" t="s">
+        <v>1619</v>
+      </c>
+      <c r="F289" t="s">
+        <v>1620</v>
+      </c>
+      <c r="G289">
+        <v>0</v>
+      </c>
+      <c r="H289" t="s">
+        <v>2</v>
+      </c>
+      <c r="I289" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B290" t="s">
+        <v>1</v>
+      </c>
+      <c r="C290" s="9" t="s">
+        <v>1623</v>
+      </c>
+      <c r="D290" t="s">
+        <v>1624</v>
+      </c>
+      <c r="E290" t="s">
+        <v>1625</v>
+      </c>
+      <c r="F290" t="s">
+        <v>1626</v>
+      </c>
+      <c r="G290">
+        <v>0</v>
+      </c>
+      <c r="H290" t="s">
+        <v>2</v>
+      </c>
+      <c r="I290" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B291" t="s">
+        <v>1</v>
+      </c>
+      <c r="C291" s="9" t="s">
+        <v>1629</v>
+      </c>
+      <c r="D291" t="s">
+        <v>1630</v>
+      </c>
+      <c r="E291" t="s">
+        <v>1631</v>
+      </c>
+      <c r="F291" t="s">
+        <v>1632</v>
+      </c>
+      <c r="G291">
+        <v>0</v>
+      </c>
+      <c r="H291" t="s">
+        <v>2</v>
+      </c>
+      <c r="I291" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B292" t="s">
+        <v>1</v>
+      </c>
+      <c r="C292" s="9" t="s">
+        <v>1635</v>
+      </c>
+      <c r="D292" t="s">
+        <v>872</v>
+      </c>
+      <c r="E292" t="s">
+        <v>1636</v>
+      </c>
+      <c r="F292" t="s">
+        <v>1637</v>
+      </c>
+      <c r="G292">
+        <v>0</v>
+      </c>
+      <c r="H292" t="s">
+        <v>2</v>
+      </c>
+      <c r="I292" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="s">
+        <v>1639</v>
+      </c>
+      <c r="B293" t="s">
+        <v>1</v>
+      </c>
+      <c r="C293" s="9" t="s">
+        <v>1640</v>
+      </c>
+      <c r="D293" t="s">
+        <v>1641</v>
+      </c>
+      <c r="E293" t="s">
+        <v>1642</v>
+      </c>
+      <c r="F293" t="s">
+        <v>1643</v>
+      </c>
+      <c r="G293">
+        <v>0</v>
+      </c>
+      <c r="H293" t="s">
+        <v>2</v>
+      </c>
+      <c r="I293" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="s">
+        <v>1645</v>
+      </c>
+      <c r="B294" t="s">
+        <v>1</v>
+      </c>
+      <c r="C294" s="9" t="s">
+        <v>1646</v>
+      </c>
+      <c r="D294" t="s">
+        <v>932</v>
+      </c>
+      <c r="E294" t="s">
+        <v>1647</v>
+      </c>
+      <c r="F294" t="s">
+        <v>1648</v>
+      </c>
+      <c r="G294">
+        <v>0</v>
+      </c>
+      <c r="H294" t="s">
+        <v>2</v>
+      </c>
+      <c r="I294" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B295" t="s">
+        <v>1</v>
+      </c>
+      <c r="C295" s="9" t="s">
+        <v>1651</v>
+      </c>
+      <c r="D295" t="s">
+        <v>1652</v>
+      </c>
+      <c r="E295" t="s">
+        <v>1653</v>
+      </c>
+      <c r="F295" t="s">
+        <v>1654</v>
+      </c>
+      <c r="G295">
+        <v>0</v>
+      </c>
+      <c r="H295" t="s">
+        <v>2</v>
+      </c>
+      <c r="I295" t="s">
+        <v>1655</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
